--- a/PS-VRP/Dati_output/sequenza_parziale.xlsx
+++ b/PS-VRP/Dati_output/sequenza_parziale.xlsx
@@ -515,18 +515,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251742</v>
+        <v>251547</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>134.8524590163935</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,21 +535,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>8226</v>
+        <v>13129</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -580,11 +580,11 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S2" t="n">
         <v>7</v>
@@ -592,41 +592,41 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251840</v>
+        <v>250759</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>93.67213114754098</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5714</v>
+        <v>8398</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,17 +635,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N3" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -653,15 +653,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -669,41 +669,41 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251229</v>
+        <v>250894</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>307.1967213114754</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>18739</v>
+        <v>44262</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -712,77 +712,73 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N4" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251050</v>
+        <v>251742</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>217</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>8226</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +787,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,57 +805,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251054</v>
+        <v>251840</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>5714</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,17 +864,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -886,57 +882,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251081</v>
+        <v>251229</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>42.42253521126761</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>3012</v>
+        <v>18739</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,18 +941,18 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>39750 (esterno)</t>
+          <t>39723 (esterno)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -965,57 +961,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39750</v>
+        <v>39723</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251225</v>
+        <v>251651</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>46830</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1024,71 +1020,69 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>76</v>
       </c>
       <c r="N8" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251227</v>
+        <v>251050</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1101,17 +1095,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M9" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1119,57 +1113,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251782</v>
+        <v>251054</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D10" t="n">
-        <v>170.0422535211268</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>12073</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1178,17 +1172,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1196,57 +1190,57 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251284</v>
+        <v>251081</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>40.5</v>
+        <v>125</v>
       </c>
       <c r="D11" t="n">
-        <v>297.0909090909091</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>16340</v>
+        <v>3012</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1255,17 +1249,19 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="n">
-        <v>39747</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1273,57 +1269,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39747</v>
+        <v>39750</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251651</v>
+        <v>251225</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>767.7049180327868</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>46830</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1332,73 +1328,75 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251547</v>
+        <v>251227</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>184.9154929577465</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>13129</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1407,17 +1405,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N13" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1425,57 +1423,57 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>250759</v>
+        <v>251782</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>118.2816901408451</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>8398</v>
+        <v>12073</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1484,17 +1482,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
         <v>76</v>
       </c>
       <c r="N14" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1502,15 +1500,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -1518,77 +1516,81 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>250894</v>
+        <v>251706</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>623.4084507042254</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>44262</v>
+        <v>3200</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
-      </c>
-      <c r="N15" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O15" t="n">
         <v>0</v>
       </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -2464,62 +2466,60 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251706</v>
+        <v>251284</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="D27" t="n">
-        <v>50.79365079365079</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>3200</v>
+        <v>16340</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N27" t="n">
+        <v>39747</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2527,18 +2527,18 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>39764</v>
+        <v>39747</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S27" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/sequenza_parziale.xlsx
+++ b/PS-VRP/Dati_output/sequenza_parziale.xlsx
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251547</v>
+        <v>251651</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>184.9154929577465</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>13129</v>
+        <v>46830</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,75 +558,73 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>76</v>
+      </c>
+      <c r="N2" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>2025-05-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>70</v>
-      </c>
-      <c r="N2" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>2025-05-06 00:00:00</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>-1.443691314548611</v>
-      </c>
-      <c r="S2" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>250759</v>
+        <v>251742</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>118.2816901408451</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8398</v>
+        <v>8226</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,17 +633,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -653,57 +651,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>250894</v>
+        <v>251840</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>623.4084507042254</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>44262</v>
+        <v>5714</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -712,39 +710,41 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+        <v>39758</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251742</v>
+        <v>251229</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -752,33 +752,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>134.8524590163935</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>8226</v>
+        <v>18739</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -787,17 +787,19 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="n">
-        <v>39749</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -805,7 +807,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>39723</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -813,49 +815,49 @@
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251840</v>
+        <v>251455</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>93.67213114754098</v>
+        <v>82.765625</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5714</v>
+        <v>5297</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,13 +870,13 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -882,57 +884,60 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.4885587431712963</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1</v>
+        <v>-0.3623372395833334</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>-0.3623372395833334</v>
+      </c>
+      <c r="T6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251229</v>
+        <v>251371</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>307.1967213114754</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-07 08:56:45</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-07 08:56:45</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-07 08:56:45</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>18739</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -941,18 +946,18 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>39723 (esterno)</t>
+          <t>39666 (esterno)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -961,57 +966,60 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39723</v>
+        <v>39666</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1</v>
+        <v>-13.37275390625</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>-13.37275390625</v>
+      </c>
+      <c r="T7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251651</v>
+        <v>251391</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>767.7049180327868</v>
+        <v>91.640625</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 08:56:45</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-07 09:13:45</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-07 09:13:45</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-07 10:45:24</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>46830</v>
+        <v>5865</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1020,73 +1028,78 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4</v>
+        <v>-0.4481987847222222</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>-0.4481987847222222</v>
+      </c>
+      <c r="T8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251050</v>
+        <v>251396</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 10:45:24</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 11:02:24</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 11:02:24</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 11:37:45</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1095,17 +1108,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1113,57 +1126,60 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-1.442361111111111</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2</v>
+        <v>-0.4845486111111111</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>-0.4845486111111111</v>
+      </c>
+      <c r="T9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251054</v>
+        <v>251395</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 11:37:45</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 11:52:45</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 11:52:45</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 12:28:05</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1172,17 +1188,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1190,57 +1206,60 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-1.466666666666667</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2</v>
+        <v>-0.5195095486111111</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>-0.5195095486111111</v>
+      </c>
+      <c r="T10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251081</v>
+        <v>251548</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>42.42253521126761</v>
+        <v>206.90625</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 12:28:05</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-07 12:47:05</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-07 12:47:05</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-08 08:14:00</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3012</v>
+        <v>13242</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1249,19 +1268,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N11" t="n">
+        <v>39749</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1269,57 +1286,60 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39750</v>
+        <v>39749</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-16.58293231612268</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2</v>
+        <v>-1.343055555555555</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>-1.343055555555555</v>
+      </c>
+      <c r="T11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251225</v>
+        <v>250923</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>109.46875</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 08:14:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 08:46:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 08:46:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 10:35:28</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7006</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1332,13 +1352,13 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1346,57 +1366,60 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.5131944444444444</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1</v>
+        <v>-1.441297743055556</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>-1.441297743055556</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251227</v>
+        <v>251477</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>468.734375</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 10:35:28</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 10:54:28</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 10:54:28</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 10:43:12</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>29999</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1405,17 +1428,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
         <v>76</v>
       </c>
       <c r="N13" t="n">
-        <v>39746</v>
+        <v>39760</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1423,57 +1446,60 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39746</v>
+        <v>39760</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-2.523611111111111</v>
-      </c>
-      <c r="S13" t="n">
+        <v>-2.446668836805555</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>-2.446668836805555</v>
+      </c>
+      <c r="T13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251782</v>
+        <v>251050</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="D14" t="n">
-        <v>170.0422535211268</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>12073</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1482,17 +1508,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M14" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1500,78 +1526,76 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251706</v>
+        <v>251054</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C15" t="n">
+        <v>35</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="D15" t="n">
-        <v>50.79365079365079</v>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N15" t="n">
+        <v>39747</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1579,57 +1603,57 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39764</v>
+        <v>39747</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S15" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251164</v>
+        <v>251081</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="D16" t="n">
-        <v>204.0816326530612</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>10000</v>
+        <v>3012</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1638,17 +1662,19 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="N16" t="n">
-        <v>39749</v>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1656,57 +1682,57 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39749</v>
+        <v>39750</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251456</v>
+        <v>251284</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>50</v>
+        <v>40.5</v>
       </c>
       <c r="D17" t="n">
-        <v>183.6530612244898</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>8999</v>
+        <v>16340</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1715,17 +1741,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1733,15 +1759,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -1749,116 +1775,120 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251416</v>
+        <v>251706</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>229.0204081632653</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 11:41:45</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>11222</v>
+        <v>3200</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
-      </c>
-      <c r="N18" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O18" t="n">
         <v>0</v>
       </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251455</v>
+        <v>251547</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D19" t="n">
-        <v>82.765625</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5297</v>
+        <v>13129</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1889,56 +1919,53 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.3623372395833334</v>
-      </c>
-      <c r="S19" s="1" t="n">
-        <v>-0.3623372395833334</v>
-      </c>
-      <c r="T19" t="n">
+        <v>-1.443691314548611</v>
+      </c>
+      <c r="S19" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251371</v>
+        <v>250759</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 08:56:45</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 08:56:45</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 08:56:45</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>8398</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1947,19 +1974,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L20" t="n">
         <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N20" t="n">
+        <v>39747</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1967,60 +1992,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39666</v>
+        <v>39747</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-13.37275390625</v>
-      </c>
-      <c r="S20" s="1" t="n">
-        <v>-13.37275390625</v>
-      </c>
-      <c r="T20" t="n">
-        <v>7</v>
+        <v>-0.5466647104861111</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251391</v>
+        <v>250894</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>91.640625</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 08:56:45</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 09:13:45</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 09:13:45</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:45:24</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>5865</v>
+        <v>44262</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2029,78 +2051,73 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
         <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N21" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.4481987847222222</v>
-      </c>
-      <c r="S21" s="1" t="n">
-        <v>-0.4481987847222222</v>
-      </c>
-      <c r="T21" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251396</v>
+        <v>251164</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D22" t="n">
-        <v>35.34375</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 10:45:24</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:02:24</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:02:24</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:37:45</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2262</v>
+        <v>10000</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2131,56 +2148,53 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.4845486111111111</v>
-      </c>
-      <c r="S22" s="1" t="n">
-        <v>-0.4845486111111111</v>
-      </c>
-      <c r="T22" t="n">
-        <v>7</v>
+        <v>-1.471584467118056</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251395</v>
+        <v>251456</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D23" t="n">
-        <v>35.34375</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-07 11:37:45</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-07 11:52:45</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-07 11:52:45</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-07 12:28:05</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2262</v>
+        <v>8999</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2193,13 +2207,13 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
       <c r="N23" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2207,60 +2221,57 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.5195095486111111</v>
-      </c>
-      <c r="S23" s="1" t="n">
-        <v>-0.5195095486111111</v>
-      </c>
-      <c r="T23" t="n">
-        <v>7</v>
+        <v>-3.300510204085648</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251548</v>
+        <v>251416</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D24" t="n">
-        <v>206.90625</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:28:05</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:47:05</t>
+          <t>2025-05-09 07:52:44</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:47:05</t>
+          <t>2025-05-09 07:52:44</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 08:14:00</t>
+          <t>2025-05-09 11:41:45</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>13242</v>
+        <v>11222</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2273,74 +2284,69 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
       </c>
       <c r="N24" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.343055555555555</v>
-      </c>
-      <c r="S24" s="1" t="n">
-        <v>-1.343055555555555</v>
-      </c>
-      <c r="T24" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>250923</v>
+        <v>251225</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>109.46875</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:14:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:46:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:46:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:35:28</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>7006</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2353,13 +2359,13 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
         <v>76</v>
       </c>
       <c r="N25" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2367,60 +2373,57 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.441297743055556</v>
-      </c>
-      <c r="S25" s="1" t="n">
-        <v>-1.441297743055556</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2</v>
+        <v>-0.5131944444444444</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251477</v>
+        <v>251227</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>468.734375</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 10:35:28</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 10:54:28</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 10:54:28</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 10:43:12</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>29999</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2429,17 +2432,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
         <v>76</v>
       </c>
       <c r="N26" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2447,60 +2450,57 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-2.446668836805555</v>
-      </c>
-      <c r="S26" s="1" t="n">
-        <v>-2.446668836805555</v>
-      </c>
-      <c r="T26" t="n">
+        <v>-2.523611111111111</v>
+      </c>
+      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251284</v>
+        <v>251782</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40.5</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>297.0909090909091</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>16340</v>
+        <v>12073</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2509,17 +2509,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N27" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2527,15 +2527,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S27" t="n">
         <v>1</v>

--- a/PS-VRP/Dati_output/sequenza_parziale.xlsx
+++ b/PS-VRP/Dati_output/sequenza_parziale.xlsx
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251651</v>
+        <v>251225</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>767.7049180327868</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>46830</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,73 +558,75 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>76</v>
       </c>
       <c r="N2" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>0</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251742</v>
+        <v>251227</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>134.8524590163935</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8226</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -633,17 +635,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N3" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -651,57 +653,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251840</v>
+        <v>251782</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>93.67213114754098</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5714</v>
+        <v>12073</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -710,17 +712,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>39758</v>
+        <v>39754</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -728,15 +730,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39758</v>
+        <v>39754</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -744,61 +746,61 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251229</v>
+        <v>251706</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>307.1967213114754</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>18739</v>
+        <v>3200</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>39723 (esterno)</t>
+          <t>39764 (esterno)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -807,57 +809,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39723</v>
+        <v>39764</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251455</v>
+        <v>251050</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="D6" t="n">
-        <v>82.765625</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -866,17 +868,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -884,56 +886,53 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.3623372395833334</v>
-      </c>
-      <c r="S6" s="1" t="n">
-        <v>-0.3623372395833334</v>
-      </c>
-      <c r="T6" t="n">
-        <v>7</v>
+        <v>-1.442361111111111</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251371</v>
+        <v>251054</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 08:56:45</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 08:56:45</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-07 08:56:45</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -946,19 +945,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N7" t="n">
+        <v>39747</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -966,60 +963,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39666</v>
+        <v>39747</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-13.37275390625</v>
-      </c>
-      <c r="S7" s="1" t="n">
-        <v>-13.37275390625</v>
-      </c>
-      <c r="T7" t="n">
-        <v>7</v>
+        <v>-1.466666666666667</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251391</v>
+        <v>251081</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="D8" t="n">
-        <v>91.640625</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-07 08:56:45</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-07 09:13:45</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-07 09:13:45</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-07 10:45:24</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>5865</v>
+        <v>3012</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1028,17 +1022,19 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="n">
-        <v>39749</v>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1046,7 +1042,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39749</v>
+        <v>39750</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1054,52 +1050,49 @@
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.4481987847222222</v>
-      </c>
-      <c r="S8" s="1" t="n">
-        <v>-0.4481987847222222</v>
-      </c>
-      <c r="T8" t="n">
-        <v>7</v>
+        <v>-16.58293231612268</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251396</v>
+        <v>251284</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>40.5</v>
       </c>
       <c r="D9" t="n">
-        <v>35.34375</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-07 10:45:24</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-07 11:02:24</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-07 11:02:24</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-07 11:37:45</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2262</v>
+        <v>16340</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1108,17 +1101,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1126,60 +1119,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.4845486111111111</v>
-      </c>
-      <c r="S9" s="1" t="n">
-        <v>-0.4845486111111111</v>
-      </c>
-      <c r="T9" t="n">
-        <v>7</v>
+        <v>-1.526104797974537</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251395</v>
+        <v>251742</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>35.34375</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-07 11:37:45</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-07 11:52:45</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-07 11:52:45</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-07 12:28:05</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2262</v>
+        <v>8226</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1192,7 +1182,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1210,56 +1200,53 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.5195095486111111</v>
-      </c>
-      <c r="S10" s="1" t="n">
-        <v>-0.5195095486111111</v>
-      </c>
-      <c r="T10" t="n">
+        <v>-1.406147540983796</v>
+      </c>
+      <c r="S10" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251548</v>
+        <v>251840</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>206.90625</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-07 12:28:05</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-07 12:47:05</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-07 12:47:05</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 08:14:00</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>13242</v>
+        <v>5714</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1272,13 +1259,13 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1286,60 +1273,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.343055555555555</v>
-      </c>
-      <c r="S11" s="1" t="n">
-        <v>-1.343055555555555</v>
-      </c>
-      <c r="T11" t="n">
-        <v>7</v>
+        <v>-0.4885587431712963</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>250923</v>
+        <v>251229</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>109.46875</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 08:14:00</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 08:46:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 08:46:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 10:35:28</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>7006</v>
+        <v>18739</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1348,17 +1332,19 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
-      </c>
-      <c r="N12" t="n">
-        <v>39749</v>
+        <v>70</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1366,26 +1352,23 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39749</v>
+        <v>39723</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-1.441297743055556</v>
-      </c>
-      <c r="S12" s="1" t="n">
-        <v>-1.441297743055556</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251477</v>
+        <v>251455</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1396,30 +1379,30 @@
         <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>468.734375</v>
+        <v>82.765625</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:35:28</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:54:28</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:54:28</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 10:43:12</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>29999</v>
+        <v>5297</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1428,17 +1411,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1446,56 +1429,56 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-2.446668836805555</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-2.446668836805555</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251050</v>
+        <v>251371</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 08:56:45</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 08:56:45</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 08:56:45</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1508,17 +1491,19 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
-      <c r="N14" t="n">
-        <v>39747</v>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1526,57 +1511,60 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39747</v>
+        <v>39666</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.442361111111111</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2</v>
+        <v>-13.37275390625</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>-13.37275390625</v>
+      </c>
+      <c r="T14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251054</v>
+        <v>251391</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>91.640625</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 08:56:45</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 09:13:45</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 09:13:45</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 10:45:24</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>5865</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1585,17 +1573,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1603,57 +1591,60 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.466666666666667</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2</v>
+        <v>-0.4481987847222222</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>-0.4481987847222222</v>
+      </c>
+      <c r="T15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251081</v>
+        <v>251396</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>42.42253521126761</v>
+        <v>35.34375</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 10:45:24</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-07 11:02:24</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-07 11:02:24</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-07 11:37:45</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>3012</v>
+        <v>2262</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1662,19 +1653,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N16" t="n">
+        <v>39749</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1682,57 +1671,60 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39750</v>
+        <v>39749</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-16.58293231612268</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2</v>
+        <v>-0.4845486111111111</v>
+      </c>
+      <c r="S16" s="1" t="n">
+        <v>-0.4845486111111111</v>
+      </c>
+      <c r="T16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251284</v>
+        <v>251395</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>40.5</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>297.0909090909091</v>
+        <v>35.34375</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 11:37:45</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-07 11:52:45</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-07 11:52:45</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-07 12:28:05</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>16340</v>
+        <v>2262</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1741,17 +1733,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1759,78 +1751,79 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1.526104797974537</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1</v>
+        <v>-0.5195095486111111</v>
+      </c>
+      <c r="S17" s="1" t="n">
+        <v>-0.5195095486111111</v>
+      </c>
+      <c r="T17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251706</v>
+        <v>251548</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>50.79365079365079</v>
+        <v>206.90625</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 12:28:05</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 12:47:05</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 12:47:05</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-08 08:14:00</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>3200</v>
+        <v>13242</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N18" t="n">
+        <v>39749</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1838,57 +1831,60 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39764</v>
+        <v>39749</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
+        <v>-1.343055555555555</v>
+      </c>
+      <c r="S18" s="1" t="n">
+        <v>-1.343055555555555</v>
+      </c>
+      <c r="T18" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251547</v>
+        <v>250923</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" t="n">
-        <v>184.9154929577465</v>
+        <v>109.46875</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 08:14:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 08:46:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 08:46:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 10:35:28</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>13129</v>
+        <v>7006</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1897,14 +1893,14 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N19" t="n">
         <v>39749</v>
@@ -1919,53 +1915,56 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-1.443691314548611</v>
-      </c>
-      <c r="S19" t="n">
-        <v>7</v>
+        <v>-1.441297743055556</v>
+      </c>
+      <c r="S19" s="1" t="n">
+        <v>-1.441297743055556</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>250759</v>
+        <v>251477</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>118.2816901408451</v>
+        <v>468.734375</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 10:35:28</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 10:54:28</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 10:54:28</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-09 10:43:12</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>8398</v>
+        <v>29999</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1974,17 +1973,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
         <v>76</v>
       </c>
       <c r="N20" t="n">
-        <v>39747</v>
+        <v>39760</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1992,57 +1991,60 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39747</v>
+        <v>39760</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.5466647104861111</v>
-      </c>
-      <c r="S20" t="n">
+        <v>-2.446668836805555</v>
+      </c>
+      <c r="S20" s="1" t="n">
+        <v>-2.446668836805555</v>
+      </c>
+      <c r="T20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>250894</v>
+        <v>251164</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D21" t="n">
-        <v>623.4084507042254</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>44262</v>
+        <v>10000</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2051,31 +2053,33 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N21" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S21" t="n">
         <v>4</v>
@@ -2083,7 +2087,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251164</v>
+        <v>251456</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2091,33 +2095,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D22" t="n">
-        <v>204.0816326530612</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>10000</v>
+        <v>8999</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2130,13 +2134,13 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
       </c>
       <c r="N22" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2144,23 +2148,23 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251456</v>
+        <v>251416</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2168,33 +2172,33 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D23" t="n">
-        <v>183.6530612244898</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-09 07:52:44</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-09 07:52:44</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-09 11:41:45</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>8999</v>
+        <v>11222</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2207,71 +2211,69 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
       <c r="N23" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251416</v>
+        <v>251547</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
-        <v>229.0204081632653</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-09 11:41:45</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>11222</v>
+        <v>13129</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2284,69 +2286,71 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
       </c>
       <c r="N24" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251225</v>
+        <v>250759</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>8398</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2355,7 +2359,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -2377,11 +2381,11 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -2389,41 +2393,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251227</v>
+        <v>250894</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>44262</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2432,25 +2436,23 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
         <v>76</v>
       </c>
       <c r="N26" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2458,49 +2460,49 @@
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251782</v>
+        <v>251651</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D27" t="n">
-        <v>170.0422535211268</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>12073</v>
+        <v>46830</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2509,36 +2511,34 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
         <v>76</v>
       </c>
       <c r="N27" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/sequenza_parziale.xlsx
+++ b/PS-VRP/Dati_output/sequenza_parziale.xlsx
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251225</v>
+        <v>250759</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 09:17:16</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8398</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -580,53 +580,56 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.5131944444444444</v>
-      </c>
-      <c r="S2" t="n">
+        <v>-0.5466647104861111</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>-0.3870011737037037</v>
+      </c>
+      <c r="T2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251227</v>
+        <v>250894</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 09:17:16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 09:34:16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 09:34:16</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 11:57:41</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>44262</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,25 +638,23 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>76</v>
       </c>
       <c r="N3" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -661,49 +662,52 @@
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-2.523611111111111</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251782</v>
+        <v>251547</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>170.0422535211268</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 11:57:41</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 12:29:41</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 12:29:41</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-12 07:34:36</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>12073</v>
+        <v>13129</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -712,17 +716,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -730,18 +734,21 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.3201682316087963</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1</v>
+        <v>-5.315698356805556</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>-5.315698356805556</v>
+      </c>
+      <c r="T4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -825,7 +832,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251050</v>
+        <v>251081</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,10 +840,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -845,21 +852,21 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 09:07:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 09:07:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 09:49:25</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3012</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -872,13 +879,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="n">
-        <v>39747</v>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -886,23 +895,26 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39747</v>
+        <v>39750</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-1.442361111111111</v>
-      </c>
-      <c r="S6" t="n">
+        <v>-16.58293231612268</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>-16.40932120501157</v>
+      </c>
+      <c r="T6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251054</v>
+        <v>251050</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -910,29 +922,29 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 09:49:25</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -971,15 +983,18 @@
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.466666666666667</v>
-      </c>
-      <c r="S7" t="n">
+        <v>-1.49612676056713</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>-1.49612676056713</v>
+      </c>
+      <c r="T7" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251081</v>
+        <v>251054</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -987,33 +1002,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
-        <v>42.42253521126761</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 12:29:25</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 12:29:25</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 12:29:25</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>3012</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1026,15 +1041,13 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N8" t="n">
+        <v>39747</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1042,57 +1055,60 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39750</v>
+        <v>39747</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-16.58293231612268</v>
-      </c>
-      <c r="S8" t="n">
+        <v>-1.520432316122685</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>-1.520432316122685</v>
+      </c>
+      <c r="T8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251284</v>
+        <v>251742</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>40.5</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>297.0909090909091</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>16340</v>
+        <v>8226</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1101,17 +1117,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1119,23 +1135,23 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251742</v>
+        <v>251840</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1143,33 +1159,33 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>134.8524590163935</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>8226</v>
+        <v>5714</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1182,13 +1198,13 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1196,23 +1212,23 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251840</v>
+        <v>251229</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1223,30 +1239,30 @@
         <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>93.67213114754098</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>5714</v>
+        <v>18739</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1255,17 +1271,19 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="n">
-        <v>39758</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1273,15 +1291,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39758</v>
+        <v>39723</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1289,41 +1307,41 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251229</v>
+        <v>251782</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>307.1967213114754</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-09 07:07:02</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>18739</v>
+        <v>12073</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1332,19 +1350,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N12" t="n">
+        <v>39754</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1352,57 +1368,60 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39723</v>
+        <v>39754</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
+        <v>-0.3201682316087963</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>-0.2965571204976852</v>
+      </c>
+      <c r="T12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251455</v>
+        <v>251225</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>82.765625</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-09 07:07:02</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 07:24:02</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 07:24:02</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-09 07:24:02</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1411,17 +1430,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N13" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1429,30 +1448,30 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-1.308362676053241</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-1.308362676053241</v>
       </c>
       <c r="T13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251371</v>
+        <v>251227</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1463,22 +1482,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-09 07:24:02</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-07 08:56:45</t>
+          <t>2025-05-09 07:39:02</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-07 08:56:45</t>
+          <t>2025-05-09 07:39:02</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-07 08:56:45</t>
+          <t>2025-05-09 07:39:02</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1491,19 +1510,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N14" t="n">
+        <v>39746</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1511,60 +1528,60 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39666</v>
+        <v>39746</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-13.37275390625</v>
+        <v>-3.318779342719908</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-13.37275390625</v>
+        <v>-3.318779342719908</v>
       </c>
       <c r="T14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251391</v>
+        <v>251651</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D15" t="n">
-        <v>91.640625</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-07 08:56:45</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-07 09:13:45</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-07 09:13:45</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-07 10:45:24</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>5865</v>
+        <v>46830</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1573,78 +1590,73 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
         <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N15" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.4481987847222222</v>
-      </c>
-      <c r="S15" s="1" t="n">
-        <v>-0.4481987847222222</v>
-      </c>
-      <c r="T15" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251396</v>
+        <v>251416</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D16" t="n">
-        <v>35.34375</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-07 10:45:24</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-07 11:02:24</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-07 11:02:24</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-07 11:37:45</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2262</v>
+        <v>11222</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1657,74 +1669,72 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.4845486111111111</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-0.4845486111111111</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251395</v>
+        <v>251456</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D17" t="n">
-        <v>35.34375</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-07 11:37:45</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-07 11:52:45</t>
+          <t>2025-05-08 12:04:01</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-07 11:52:45</t>
+          <t>2025-05-08 12:04:01</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-07 12:28:05</t>
+          <t>2025-05-09 07:07:40</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2262</v>
+        <v>8999</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1737,13 +1747,13 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1751,60 +1761,60 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.5195095486111111</v>
+        <v>-3.296995464849537</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-0.5195095486111111</v>
+        <v>-3.296995464849537</v>
       </c>
       <c r="T17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251548</v>
+        <v>251164</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>206.90625</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-07 12:28:05</t>
+          <t>2025-05-09 07:07:40</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-07 12:47:05</t>
+          <t>2025-05-09 07:57:40</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-07 12:47:05</t>
+          <t>2025-05-09 07:57:40</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-08 08:14:00</t>
+          <t>2025-05-09 11:21:45</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>13242</v>
+        <v>10000</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1817,7 +1827,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1835,22 +1845,22 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.343055555555555</v>
+        <v>-2.473441043078704</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-1.343055555555555</v>
+        <v>-2.473441043078704</v>
       </c>
       <c r="T18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>250923</v>
+        <v>251548</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1858,33 +1868,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>109.46875</v>
+        <v>206.90625</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 08:14:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 08:46:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 08:46:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:35:28</t>
+          <t>2025-05-07 10:45:54</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>7006</v>
+        <v>13242</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1893,14 +1903,14 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N19" t="n">
         <v>39749</v>
@@ -1915,22 +1925,22 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-1.441297743055556</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-1.441297743055556</v>
+        <v>-0.4485460069444445</v>
       </c>
       <c r="T19" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251477</v>
+        <v>251455</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1938,33 +1948,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
-        <v>468.734375</v>
+        <v>82.765625</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 10:35:28</t>
+          <t>2025-05-07 10:45:54</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 10:54:28</t>
+          <t>2025-05-07 11:00:54</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 10:54:28</t>
+          <t>2025-05-07 11:00:54</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-09 10:43:12</t>
+          <t>2025-05-07 12:23:40</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>29999</v>
+        <v>5297</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1973,17 +1983,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1991,60 +2001,60 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-2.446668836805555</v>
+        <v>-0.5164388020833334</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-2.446668836805555</v>
+        <v>-0.5164388020833334</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251164</v>
+        <v>251371</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>204.0816326530612</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 12:23:40</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-07 12:38:40</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-07 12:38:40</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-07 12:38:40</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2057,13 +2067,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
       </c>
-      <c r="N21" t="n">
-        <v>39749</v>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2071,57 +2083,60 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-1.471584467118056</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4</v>
+        <v>-13.52685546875</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>-13.52685546875</v>
+      </c>
+      <c r="T21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251456</v>
+        <v>251391</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>183.6530612244898</v>
+        <v>91.640625</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-07 12:38:40</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-07 12:55:40</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-07 12:55:40</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-07 14:27:18</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>8999</v>
+        <v>5865</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2134,13 +2149,13 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
       </c>
       <c r="N22" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2148,57 +2163,60 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-3.300510204085648</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1</v>
+        <v>-0.6023003472222223</v>
+      </c>
+      <c r="S22" s="1" t="n">
+        <v>-0.6023003472222223</v>
+      </c>
+      <c r="T22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251416</v>
+        <v>251395</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>229.0204081632653</v>
+        <v>35.34375</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-07 14:27:18</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-07 14:44:18</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-07 14:44:18</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-09 11:41:45</t>
+          <t>2025-05-08 07:19:39</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>11222</v>
+        <v>2262</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2211,19 +2229,21 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
       <c r="N23" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2231,49 +2251,52 @@
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2</v>
+        <v>-1.305316840277778</v>
+      </c>
+      <c r="S23" s="1" t="n">
+        <v>-1.305316840277778</v>
+      </c>
+      <c r="T23" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251547</v>
+        <v>251396</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D24" t="n">
-        <v>184.9154929577465</v>
+        <v>35.34375</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 07:19:39</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 07:34:39</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 07:34:39</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 08:10:00</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>13129</v>
+        <v>2262</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2286,7 +2309,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
@@ -2304,53 +2327,56 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.443691314548611</v>
-      </c>
-      <c r="S24" t="n">
+        <v>-1.340277777777778</v>
+      </c>
+      <c r="S24" s="1" t="n">
+        <v>-1.340277777777778</v>
+      </c>
+      <c r="T24" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>250759</v>
+        <v>250923</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D25" t="n">
-        <v>118.2816901408451</v>
+        <v>109.46875</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 08:10:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 08:42:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 08:42:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 10:31:28</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>8398</v>
+        <v>7006</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2359,17 +2385,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
         <v>76</v>
       </c>
       <c r="N25" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2377,57 +2403,60 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-0.5466647104861111</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1</v>
+        <v>-1.438519965277778</v>
+      </c>
+      <c r="S25" s="1" t="n">
+        <v>-1.438519965277778</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>250894</v>
+        <v>251477</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>623.4084507042254</v>
+        <v>468.734375</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 10:31:28</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 10:50:28</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 10:50:28</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-09 10:39:12</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>44262</v>
+        <v>29999</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2436,50 +2465,55 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
         <v>76</v>
       </c>
       <c r="N26" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
+        <v>39760</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>4</v>
+        <v>-2.443891059027778</v>
+      </c>
+      <c r="S26" s="1" t="n">
+        <v>-2.443891059027778</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251651</v>
+        <v>251284</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>29</v>
+        <v>40.5</v>
       </c>
       <c r="D27" t="n">
-        <v>767.7049180327868</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2488,21 +2522,21 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>46830</v>
+        <v>16340</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2511,23 +2545,25 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2535,10 +2571,10 @@
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/sequenza_parziale.xlsx
+++ b/PS-VRP/Dati_output/sequenza_parziale.xlsx
@@ -515,18 +515,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>250759</v>
+        <v>251742</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>118.2816901408451</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,21 +535,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 09:17:16</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>8398</v>
+        <v>8226</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,17 +558,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N2" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,60 +576,57 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.5466647104861111</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>-0.3870011737037037</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1</v>
+        <v>-1.406147540983796</v>
+      </c>
+      <c r="S2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>250894</v>
+        <v>251840</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>623.4084507042254</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:17:16</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:34:16</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:34:16</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-09 11:57:41</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>44262</v>
+        <v>5714</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -638,76 +635,75 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
+        <v>39758</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>4</v>
+        <v>-0.4885587431712963</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251547</v>
+        <v>251229</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>184.9154929577465</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-09 11:57:41</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:41</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:41</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-12 07:34:36</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>13129</v>
+        <v>18739</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -716,17 +712,19 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="n">
-        <v>39749</v>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -734,80 +732,77 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39749</v>
+        <v>39723</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-5.315698356805556</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>-5.315698356805556</v>
-      </c>
-      <c r="T4" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251706</v>
+        <v>251081</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="D5" t="n">
-        <v>50.79365079365079</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 09:07:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 09:07:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-09 09:49:25</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>3200</v>
+        <v>3012</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>39764 (esterno)</t>
+          <t>39750 (esterno)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -816,23 +811,26 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39764</v>
+        <v>39750</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>7</v>
+        <v>-16.58293231612268</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>-16.40932120501157</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251081</v>
+        <v>251050</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -840,33 +838,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D6" t="n">
-        <v>42.42253521126761</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 09:49:25</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 09:07:00</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 09:07:00</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 09:49:25</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3012</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -879,15 +877,13 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N6" t="n">
+        <v>39747</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -895,18 +891,18 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39750</v>
+        <v>39747</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.49612676056713</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-16.40932120501157</v>
+        <v>-1.49612676056713</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -914,7 +910,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251050</v>
+        <v>251054</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -922,29 +918,29 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 09:49:25</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:25</t>
+          <t>2025-05-09 12:29:25</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:25</t>
+          <t>2025-05-09 12:29:25</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:25</t>
+          <t>2025-05-09 12:29:25</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -983,10 +979,10 @@
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.49612676056713</v>
+        <v>-1.520432316122685</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-1.49612676056713</v>
+        <v>-1.520432316122685</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -994,41 +990,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251054</v>
+        <v>251416</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>35</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:25</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:25</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:25</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:25</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>11222</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1037,36 +1033,34 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.520432316122685</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-1.520432316122685</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1074,41 +1068,41 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251742</v>
+        <v>251164</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D9" t="n">
-        <v>134.8524590163935</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 12:19:01</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 12:19:01</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 07:43:06</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>8226</v>
+        <v>10000</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1121,7 +1115,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
@@ -1139,53 +1133,56 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-1.406147540983796</v>
-      </c>
-      <c r="S9" t="n">
-        <v>7</v>
+        <v>-2.321598639456018</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>-2.321598639456018</v>
+      </c>
+      <c r="T9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251840</v>
+        <v>251456</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
-        <v>93.67213114754098</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 07:43:06</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-09 08:33:06</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-09 08:33:06</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-09 11:36:45</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>5714</v>
+        <v>8999</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1198,13 +1195,13 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39758</v>
+        <v>39746</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1212,7 +1209,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39758</v>
+        <v>39746</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1220,49 +1217,52 @@
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.4885587431712963</v>
-      </c>
-      <c r="S10" t="n">
+        <v>-3.48385770974537</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>-3.48385770974537</v>
+      </c>
+      <c r="T10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251229</v>
+        <v>251225</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>307.1967213114754</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>18739</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1271,19 +1271,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N11" t="n">
+        <v>39747</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1291,15 +1289,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39723</v>
+        <v>39747</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1307,7 +1305,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251782</v>
+        <v>251227</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1315,33 +1313,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>170.0422535211268</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:02</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>12073</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1350,17 +1348,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39754</v>
+        <v>39746</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1368,26 +1366,23 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39754</v>
+        <v>39746</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.3201682316087963</v>
-      </c>
-      <c r="S12" s="1" t="n">
-        <v>-0.2965571204976852</v>
-      </c>
-      <c r="T12" t="n">
+        <v>-2.523611111111111</v>
+      </c>
+      <c r="S12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251225</v>
+        <v>251782</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1398,30 +1393,30 @@
         <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:02</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:24:02</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:24:02</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:24:02</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>12073</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1430,17 +1425,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
         <v>76</v>
       </c>
       <c r="N13" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1448,60 +1443,57 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.308362676053241</v>
-      </c>
-      <c r="S13" s="1" t="n">
-        <v>-1.308362676053241</v>
-      </c>
-      <c r="T13" t="n">
+        <v>-0.3201682316087963</v>
+      </c>
+      <c r="S13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251227</v>
+        <v>251547</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:24:02</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:39:02</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:39:02</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:39:02</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>13129</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1510,17 +1502,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1528,60 +1520,57 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-3.318779342719908</v>
-      </c>
-      <c r="S14" s="1" t="n">
-        <v>-3.318779342719908</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1</v>
+        <v>-1.443691314548611</v>
+      </c>
+      <c r="S14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251651</v>
+        <v>250759</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>767.7049180327868</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>46830</v>
+        <v>8398</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1590,73 +1579,75 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>76</v>
       </c>
       <c r="N15" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251416</v>
+        <v>250894</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>229.0204081632653</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>11222</v>
+        <v>44262</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1665,14 +1656,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N16" t="n">
         <v>39755</v>
@@ -1685,56 +1676,53 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2</v>
+      <c r="S16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251456</v>
+        <v>251651</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
-        <v>183.6530612244898</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:04:01</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:04:01</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:40</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>8999</v>
+        <v>46830</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1743,78 +1731,73 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N17" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-3.296995464849537</v>
-      </c>
-      <c r="S17" s="1" t="n">
-        <v>-3.296995464849537</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251164</v>
+        <v>251284</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>40.5</v>
       </c>
       <c r="D18" t="n">
-        <v>204.0816326530612</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:40</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:57:40</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:57:40</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:45</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>10000</v>
+        <v>16340</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1823,17 +1806,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1841,26 +1824,23 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-2.473441043078704</v>
-      </c>
-      <c r="S18" s="1" t="n">
-        <v>-2.473441043078704</v>
-      </c>
-      <c r="T18" t="n">
-        <v>4</v>
+        <v>-1.526104797974537</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251548</v>
+        <v>251391</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1868,10 +1848,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D19" t="n">
-        <v>206.90625</v>
+        <v>91.640625</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1880,21 +1860,21 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-07 07:21:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-07 07:21:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 10:45:54</t>
+          <t>2025-05-07 08:52:38</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>13242</v>
+        <v>5865</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1907,7 +1887,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1925,14 +1905,14 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-0.4485460069444445</v>
+        <v>-0.3698893229166667</v>
       </c>
       <c r="T19" t="n">
         <v>7</v>
@@ -1940,7 +1920,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251455</v>
+        <v>251395</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1948,33 +1928,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>82.765625</v>
+        <v>35.34375</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 10:45:54</t>
+          <t>2025-05-07 08:52:38</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:00:54</t>
+          <t>2025-05-07 09:09:38</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:00:54</t>
+          <t>2025-05-07 09:09:38</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:40</t>
+          <t>2025-05-07 09:44:59</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5297</v>
+        <v>2262</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1987,7 +1967,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -2005,14 +1985,14 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.5164388020833334</v>
+        <v>-0.4062391493055555</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-0.5164388020833334</v>
+        <v>-0.4062391493055555</v>
       </c>
       <c r="T20" t="n">
         <v>7</v>
@@ -2028,29 +2008,29 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:40</t>
+          <t>2025-05-07 09:44:59</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:38:40</t>
+          <t>2025-05-07 10:03:59</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:38:40</t>
+          <t>2025-05-07 10:03:59</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:38:40</t>
+          <t>2025-05-07 10:03:59</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -2091,10 +2071,10 @@
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-13.52685546875</v>
+        <v>-13.41943359375</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-13.52685546875</v>
+        <v>-13.41943359375</v>
       </c>
       <c r="T21" t="n">
         <v>7</v>
@@ -2102,7 +2082,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251391</v>
+        <v>251455</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2110,33 +2090,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>91.640625</v>
+        <v>82.765625</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 12:38:40</t>
+          <t>2025-05-07 10:03:59</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:40</t>
+          <t>2025-05-07 10:18:59</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:40</t>
+          <t>2025-05-07 10:18:59</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-07 14:27:18</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>5865</v>
+        <v>5297</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2149,7 +2129,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
@@ -2167,14 +2147,14 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.6023003472222223</v>
+        <v>-0.4873263888888889</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-0.6023003472222223</v>
+        <v>-0.4873263888888889</v>
       </c>
       <c r="T22" t="n">
         <v>7</v>
@@ -2182,7 +2162,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251395</v>
+        <v>251396</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2190,29 +2170,29 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D23" t="n">
         <v>35.34375</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-07 14:27:18</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-07 14:44:18</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-07 14:44:18</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:39</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2247,14 +2227,14 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-1.305316840277778</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-1.305316840277778</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="T23" t="n">
         <v>7</v>
@@ -2262,7 +2242,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251396</v>
+        <v>251548</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2270,33 +2250,33 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>35.34375</v>
+        <v>206.90625</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:39</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:39</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:39</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 08:10:00</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2262</v>
+        <v>13242</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2309,7 +2289,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
@@ -2327,14 +2307,14 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.340277777777778</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-1.340277777777778</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="T24" t="n">
         <v>7</v>
@@ -2357,22 +2337,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:10:00</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:42:00</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:42:00</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:31:28</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2411,10 +2391,10 @@
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.438519965277778</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-1.438519965277778</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="T25" t="n">
         <v>2</v>
@@ -2437,22 +2417,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 10:31:28</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 10:50:28</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 10:50:28</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 10:39:12</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2491,10 +2471,10 @@
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-2.443891059027778</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-2.443891059027778</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="T26" t="n">
         <v>1</v>
@@ -2502,79 +2482,81 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251284</v>
+        <v>251706</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40.5</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>297.0909090909091</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>16340</v>
+        <v>3200</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>39764</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2025-05-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
         <v>7</v>
-      </c>
-      <c r="M27" t="n">
-        <v>70</v>
-      </c>
-      <c r="N27" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>2025-05-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="R27" s="1" t="n">
-        <v>-1.526104797974537</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/sequenza_parziale.xlsx
+++ b/PS-VRP/Dati_output/sequenza_parziale.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251742</v>
+        <v>251164</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>134.8524590163935</v>
+        <v>156.25</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-07 07:23:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-07 07:23:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-07 09:59:15</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>8226</v>
+        <v>10000</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
@@ -580,53 +580,53 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.4161458333333333</v>
       </c>
       <c r="S2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251840</v>
+        <v>251371</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>93.67213114754098</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-07 09:59:15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-07 10:18:15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-07 10:18:15</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 10:18:15</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5714</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -639,13 +639,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
-      <c r="N3" t="n">
-        <v>39758</v>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -653,57 +655,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39758</v>
+        <v>39666</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-13.42934027777778</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251229</v>
+        <v>251391</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>307.1967213114754</v>
+        <v>91.640625</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 10:18:15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-07 10:35:15</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-07 10:35:15</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-07 12:06:53</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>18739</v>
+        <v>5865</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -712,19 +714,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N4" t="n">
+        <v>39749</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,57 +732,57 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39723</v>
+        <v>39749</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-0.50478515625</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251081</v>
+        <v>251395</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>42.42253521126761</v>
+        <v>35.34375</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 12:06:53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-09 09:07:00</t>
+          <t>2025-05-07 12:23:53</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-09 09:07:00</t>
+          <t>2025-05-07 12:23:53</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 09:49:25</t>
+          <t>2025-05-07 12:59:14</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>3012</v>
+        <v>2262</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,19 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N5" t="n">
+        <v>39749</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -811,7 +809,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39750</v>
+        <v>39749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -819,52 +817,49 @@
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-16.58293231612268</v>
-      </c>
-      <c r="S5" s="1" t="n">
-        <v>-16.40932120501157</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2</v>
+        <v>-0.5411349826388889</v>
+      </c>
+      <c r="S5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251050</v>
+        <v>251396</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-09 09:49:25</t>
+          <t>2025-05-07 12:59:14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:25</t>
+          <t>2025-05-07 13:14:14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:25</t>
+          <t>2025-05-07 13:14:14</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:25</t>
+          <t>2025-05-07 13:49:34</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -873,17 +868,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -891,60 +886,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-1.49612676056713</v>
-      </c>
-      <c r="S6" s="1" t="n">
-        <v>-1.49612676056713</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2</v>
+        <v>-0.5760959201388889</v>
+      </c>
+      <c r="S6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251054</v>
+        <v>251548</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>206.90625</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:25</t>
+          <t>2025-05-07 13:49:34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:25</t>
+          <t>2025-05-07 14:08:34</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:25</t>
+          <t>2025-05-07 14:08:34</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:25</t>
+          <t>2025-05-08 09:35:29</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>13242</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -953,17 +945,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -971,60 +963,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.520432316122685</v>
-      </c>
-      <c r="S7" s="1" t="n">
-        <v>-1.520432316122685</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2</v>
+        <v>-1.399641927083333</v>
+      </c>
+      <c r="S7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251416</v>
+        <v>251477</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>229.0204081632653</v>
+        <v>468.734375</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 09:35:29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-08 10:07:29</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-08 10:07:29</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-05-09 09:56:13</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>11222</v>
+        <v>29999</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1033,76 +1022,75 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N8" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
+        <v>39760</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2</v>
+        <v>-2.414040798611111</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251164</v>
+        <v>251782</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>204.0816326530612</v>
+        <v>188.640625</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-05-09 09:56:13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:01</t>
+          <t>2025-05-09 10:11:13</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:01</t>
+          <t>2025-05-09 10:11:13</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 07:43:06</t>
+          <t>2025-05-09 13:19:51</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>10000</v>
+        <v>12073</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1111,17 +1099,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N9" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1129,60 +1117,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-2.321598639456018</v>
-      </c>
-      <c r="S9" s="1" t="n">
-        <v>-2.321598639456018</v>
-      </c>
-      <c r="T9" t="n">
-        <v>4</v>
+        <v>-0.5554578993055556</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251456</v>
+        <v>251651</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
-        <v>183.6530612244898</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:43:06</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 08:33:06</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 08:33:06</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:36:45</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>8999</v>
+        <v>46830</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1191,39 +1176,34 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N10" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-3.48385770974537</v>
-      </c>
-      <c r="S10" s="1" t="n">
-        <v>-3.48385770974537</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1232,7 +1212,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1243,22 +1223,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1297,7 +1277,7 @@
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-0.3048611111111111</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1305,41 +1285,41 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251227</v>
+        <v>251456</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>126.7464788732394</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 07:51:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 07:51:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 09:57:44</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>8999</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1348,14 +1328,14 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N12" t="n">
         <v>39746</v>
@@ -1370,11 +1350,11 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-2.415101721435185</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1382,41 +1362,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251782</v>
+        <v>251455</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>170.0422535211268</v>
+        <v>74.6056338028169</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 09:57:44</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 10:14:44</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 10:14:44</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-08 11:29:21</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>12073</v>
+        <v>5297</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1425,17 +1405,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1443,18 +1423,18 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-1.478716744918982</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1467,29 +1447,29 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
         <v>184.9154929577465</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 11:29:21</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 11:44:21</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 11:44:21</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 14:49:16</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1528,7 +1508,7 @@
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-1.617546948356481</v>
       </c>
       <c r="S14" t="n">
         <v>7</v>
@@ -1551,22 +1531,22 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 14:49:16</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 07:19:16</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 07:19:16</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-09 09:17:32</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1605,7 +1585,7 @@
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-1.387187010949074</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1628,22 +1608,22 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-09 09:17:32</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-09 09:34:32</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-09 09:34:32</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-12 11:57:57</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1688,18 +1668,18 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251651</v>
+        <v>251284</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>29</v>
+        <v>40.5</v>
       </c>
       <c r="D17" t="n">
-        <v>767.7049180327868</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1708,21 +1688,21 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>46830</v>
+        <v>16340</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1731,23 +1711,25 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1755,49 +1737,49 @@
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251284</v>
+        <v>251742</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>40.5</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>297.0909090909091</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>16340</v>
+        <v>8226</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1806,17 +1788,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1824,57 +1806,57 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251391</v>
+        <v>251840</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>91.640625</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:21:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:21:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 08:52:38</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5865</v>
+        <v>5714</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1893,7 +1875,7 @@
         <v>70</v>
       </c>
       <c r="N19" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1901,60 +1883,57 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.4377821180555556</v>
-      </c>
-      <c r="S19" s="1" t="n">
-        <v>-0.3698893229166667</v>
-      </c>
-      <c r="T19" t="n">
-        <v>7</v>
+        <v>-0.4885587431712963</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251395</v>
+        <v>251229</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>35.34375</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 08:52:38</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 09:09:38</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 09:09:38</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 09:44:59</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2262</v>
+        <v>18739</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1963,7 +1942,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1972,8 +1951,10 @@
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="N20" t="n">
-        <v>39749</v>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1981,60 +1962,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39749</v>
+        <v>39723</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.4062391493055555</v>
-      </c>
-      <c r="S20" s="1" t="n">
-        <v>-0.4062391493055555</v>
-      </c>
-      <c r="T20" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251371</v>
+        <v>250923</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>98.67605633802818</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 09:44:59</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:03:59</t>
+          <t>2025-05-08 12:21:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:03:59</t>
+          <t>2025-05-08 12:21:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:03:59</t>
+          <t>2025-05-08 13:59:40</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7006</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2043,19 +2021,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N21" t="n">
+        <v>39749</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2063,60 +2039,57 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-13.41943359375</v>
-      </c>
-      <c r="S21" s="1" t="n">
-        <v>-13.41943359375</v>
-      </c>
-      <c r="T21" t="n">
-        <v>7</v>
+        <v>-1.583108372453704</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251455</v>
+        <v>251227</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>82.765625</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 10:03:59</t>
+          <t>2025-05-08 13:59:40</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 10:18:59</t>
+          <t>2025-05-08 14:16:40</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 10:18:59</t>
+          <t>2025-05-08 14:16:40</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 14:16:40</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2125,17 +2098,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
         <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N22" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2143,60 +2116,57 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.4873263888888889</v>
-      </c>
-      <c r="S22" s="1" t="n">
-        <v>-0.4873263888888889</v>
-      </c>
-      <c r="T22" t="n">
-        <v>7</v>
+        <v>-2.594913928009259</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251396</v>
+        <v>251416</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D23" t="n">
-        <v>35.34375</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2262</v>
+        <v>11222</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2209,74 +2179,69 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
       <c r="N23" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.5250651041666666</v>
-      </c>
-      <c r="S23" s="1" t="n">
-        <v>-0.5250651041666666</v>
-      </c>
-      <c r="T23" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251548</v>
+        <v>251050</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="D24" t="n">
-        <v>206.90625</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>13242</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2285,17 +2250,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
       </c>
       <c r="N24" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2303,60 +2268,57 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.348611111111111</v>
-      </c>
-      <c r="S24" s="1" t="n">
-        <v>-1.348611111111111</v>
-      </c>
-      <c r="T24" t="n">
-        <v>7</v>
+        <v>-1.442361111111111</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>250923</v>
+        <v>251054</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D25" t="n">
-        <v>109.46875</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>7006</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2365,17 +2327,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M25" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N25" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2383,60 +2345,57 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.446853298611111</v>
-      </c>
-      <c r="S25" s="1" t="n">
-        <v>-1.446853298611111</v>
-      </c>
-      <c r="T25" t="n">
+        <v>-1.466666666666667</v>
+      </c>
+      <c r="S25" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251477</v>
+        <v>251081</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="D26" t="n">
-        <v>468.734375</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>29999</v>
+        <v>3012</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2445,17 +2404,19 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
-      </c>
-      <c r="N26" t="n">
-        <v>39760</v>
+        <v>70</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2463,21 +2424,18 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39760</v>
+        <v>39750</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-2.452224392361111</v>
-      </c>
-      <c r="S26" s="1" t="n">
-        <v>-2.452224392361111</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1</v>
+        <v>-16.58293231612268</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">

--- a/PS-VRP/Dati_output/sequenza_parziale.xlsx
+++ b/PS-VRP/Dati_output/sequenza_parziale.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251164</v>
+        <v>251219</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,33 +523,33 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>156.25</v>
+        <v>107.5</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-06-05 12:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:23:00</t>
+          <t>2025-06-05 12:36:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:23:00</t>
+          <t>2025-06-05 12:36:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-07 09:59:15</t>
+          <t>2025-06-05 14:23:30</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>10000</v>
+        <v>6880</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,17 +558,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N2" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,57 +576,57 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.4161458333333333</v>
+        <v>-0.5996527777777778</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251371</v>
+        <v>251897</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>305.0327868852459</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-07 09:59:15</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-07 10:18:15</t>
+          <t>2025-06-05 07:54:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-07 10:18:15</t>
+          <t>2025-06-05 07:54:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-07 10:18:15</t>
+          <t>2025-06-05 12:59:01</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>18607</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,18 +635,18 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>39666 (esterno)</t>
+          <t>39891 (esterno)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -655,57 +655,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39666</v>
+        <v>39891</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-13.42934027777778</v>
+        <v>-10.54099499089121</v>
       </c>
       <c r="S3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251391</v>
+        <v>251218</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>91.640625</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:18:15</t>
+          <t>2025-06-04 12:00:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:35:15</t>
+          <t>2025-06-04 12:23:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:35:15</t>
+          <t>2025-06-04 12:23:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-07 12:06:53</t>
+          <t>2025-06-04 13:59:54</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5865</v>
+        <v>6880</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -714,17 +714,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,57 +732,57 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.50478515625</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251395</v>
+        <v>251752</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-07 12:06:53</t>
+          <t>2025-06-04 13:59:54</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:53</t>
+          <t>2025-06-04 14:20:54</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:53</t>
+          <t>2025-06-04 14:20:54</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-07 12:59:14</t>
+          <t>2025-06-04 14:20:54</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N5" t="n">
-        <v>39749</v>
+        <v>39846</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,57 +809,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>39846</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.5411349826388889</v>
+        <v>-0.5978482003125</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251396</v>
+        <v>251500</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>35.34375</v>
+        <v>139.3802816901408</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-07 12:59:14</t>
+          <t>2025-06-04 14:20:54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-07 13:14:14</t>
+          <t>2025-06-04 14:52:54</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-07 13:14:14</t>
+          <t>2025-06-04 14:52:54</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-07 13:49:34</t>
+          <t>2025-06-05 09:12:16</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2262</v>
+        <v>9896</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,17 +868,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -886,57 +886,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.5760959201388889</v>
+        <v>-0.3835289514814815</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251548</v>
+        <v>251565</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>206.90625</v>
+        <v>176.7464788732394</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 13:49:34</t>
+          <t>2025-06-05 09:12:16</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 14:08:34</t>
+          <t>2025-06-05 09:31:16</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 14:08:34</t>
+          <t>2025-06-05 09:31:16</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-08 09:35:29</t>
+          <t>2025-06-05 12:28:01</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>13242</v>
+        <v>12549</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -963,57 +963,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.399641927083333</v>
+        <v>-0.5194640062615741</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251477</v>
+        <v>251180</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="D8" t="n">
-        <v>468.734375</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 09:35:29</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 10:07:29</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 10:07:29</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 09:56:13</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>29999</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1022,17 +1022,19 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>76</v>
-      </c>
-      <c r="N8" t="n">
-        <v>39760</v>
+        <v>70</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1040,57 +1042,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39760</v>
+        <v>39887</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-2.414040798611111</v>
+        <v>-16.31423611111111</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251782</v>
+        <v>251070</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>34.5</v>
       </c>
       <c r="D9" t="n">
-        <v>188.640625</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 09:56:13</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:11:13</t>
+          <t>2025-06-05 08:07:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:11:13</t>
+          <t>2025-06-05 08:07:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 13:19:51</t>
+          <t>2025-06-05 08:07:00</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>12073</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1099,17 +1101,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39754</v>
+        <v>39885</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1117,57 +1119,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39754</v>
+        <v>39885</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.5554578993055556</v>
+        <v>-0.3381944444444445</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251651</v>
+        <v>251773</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29</v>
+        <v>32.5</v>
       </c>
       <c r="D10" t="n">
-        <v>767.7049180327868</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-05 08:07:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-06-05 08:39:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-06-05 08:39:30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-06-05 08:39:30</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>46830</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1176,73 +1178,75 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
+        <v>39874</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-0.3607638888888889</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251225</v>
+        <v>251895</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>36.5</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>321.7090909090909</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-05 08:39:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-05 09:16:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-05 09:16:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-05 14:37:42</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>17694</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1251,75 +1255,77 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" t="n">
+        <v>70</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>39891</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>2025-05-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="R11" s="1" t="n">
+        <v>-10.60952020202546</v>
+      </c>
+      <c r="S11" t="n">
         <v>4</v>
-      </c>
-      <c r="M11" t="n">
-        <v>76</v>
-      </c>
-      <c r="N11" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P11" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>2025-04-30 00:00:00</t>
-        </is>
-      </c>
-      <c r="R11" s="1" t="n">
-        <v>-0.3048611111111111</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251456</v>
+        <v>251780</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>32</v>
+        <v>44.5</v>
       </c>
       <c r="D12" t="n">
-        <v>126.7464788732394</v>
+        <v>441.8</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-05 14:37:42</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:51:00</t>
+          <t>2025-06-06 07:22:12</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:51:00</t>
+          <t>2025-06-06 07:22:12</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 09:57:44</t>
+          <t>2025-06-06 14:44:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>8999</v>
+        <v>24299</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1337,8 +1343,10 @@
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="N12" t="n">
-        <v>39746</v>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1346,57 +1354,57 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39746</v>
+        <v>39887</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-2.415101721435185</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251455</v>
+        <v>252112</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>74.6056338028169</v>
+        <v>204.1475409836065</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 09:57:44</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:14:44</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:14:44</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 11:29:21</t>
+          <t>2025-06-04 10:44:08</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>5297</v>
+        <v>12453</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1409,13 +1417,13 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1423,57 +1431,57 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.478716744918982</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251547</v>
+        <v>252282</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D14" t="n">
-        <v>184.9154929577465</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:29:21</t>
+          <t>2025-06-04 10:44:08</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:44:21</t>
+          <t>2025-06-04 11:19:08</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:44:21</t>
+          <t>2025-06-04 11:19:08</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 14:49:16</t>
+          <t>2025-06-04 12:04:01</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>13129</v>
+        <v>2738</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1486,13 +1494,13 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1500,57 +1508,57 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.617546948356481</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>250759</v>
+        <v>251984</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>118.2816901408451</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 14:49:16</t>
+          <t>2025-06-04 12:04:01</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:19:16</t>
+          <t>2025-06-04 12:34:01</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:19:16</t>
+          <t>2025-06-04 12:34:01</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 09:17:32</t>
+          <t>2025-06-05 10:12:21</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>8398</v>
+        <v>20638</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1559,17 +1567,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39747</v>
+        <v>39874</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1577,15 +1585,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39747</v>
+        <v>39874</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.387187010949074</v>
+        <v>-0.4252504553703704</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1593,41 +1601,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>250894</v>
+        <v>251362</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>623.4084507042254</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 09:17:32</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 09:34:32</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 09:34:32</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 11:57:57</t>
+          <t>2025-06-05 07:52:16</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>44262</v>
+        <v>2505</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1636,73 +1644,75 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>76</v>
       </c>
       <c r="N16" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
+        <v>39874</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-0.3279733959259259</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251284</v>
+        <v>251631</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>40.5</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>297.0909090909091</v>
+        <v>146.056338028169</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-05 07:52:16</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-06-05 08:07:16</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-06-05 08:07:16</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-06-05 10:33:20</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>16340</v>
+        <v>10370</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1711,17 +1721,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N17" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1729,57 +1739,57 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.4398180751157408</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251742</v>
+        <v>251237</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D18" t="n">
-        <v>134.8524590163935</v>
+        <v>565.3521126760563</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-05 10:33:20</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-06-05 11:09:20</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-06-05 11:09:20</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-06-06 12:34:41</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>8226</v>
+        <v>40140</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1788,17 +1798,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1806,57 +1816,57 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.524090375590278</v>
       </c>
       <c r="S18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251840</v>
+        <v>252084</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>93.67213114754098</v>
+        <v>797.9795918367347</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-06-04 07:40:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-06-04 07:40:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-06-05 12:57:58</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5714</v>
+        <v>39101</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1869,13 +1879,13 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
       <c r="N19" t="n">
-        <v>39758</v>
+        <v>39885</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1883,57 +1893,57 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39758</v>
+        <v>39885</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.5402636054398148</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251229</v>
+        <v>251655</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D20" t="n">
-        <v>307.1967213114754</v>
+        <v>1617.211267605634</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-06-10 10:37:12</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>18739</v>
+        <v>114822</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1942,19 +1952,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N20" t="n">
+        <v>39885</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1962,57 +1970,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39723</v>
+        <v>39885</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0</v>
+        <v>-5.442507824722222</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>250923</v>
+        <v>251573</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D21" t="n">
-        <v>98.67605633802818</v>
+        <v>89.89855072463769</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-06-06 07:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 12:21:00</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 12:21:00</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:59:40</t>
+          <t>2025-06-06 09:04:53</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>7006</v>
+        <v>6203</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2021,17 +2029,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2039,53 +2047,53 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-1.583108372453704</v>
+        <v>-1.378401771331018</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251227</v>
+        <v>251082</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 13:59:40</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 14:16:40</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 14:16:40</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-08 14:16:40</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2093,22 +2101,22 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>T1 ;T2 ;T8</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2116,405 +2124,18 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-2.594913928009259</v>
+        <v>-0.2916666666666667</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>251416</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>35</v>
-      </c>
-      <c r="D23" t="n">
-        <v>229.0204081632653</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:00:00</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:35:00</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:35:00</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2025-05-08 11:24:01</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>11222</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
         <v>2</v>
-      </c>
-      <c r="M23" t="n">
-        <v>70</v>
-      </c>
-      <c r="N23" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>2025-04-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>251050</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>217</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:00:00</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>38</v>
-      </c>
-      <c r="M24" t="n">
-        <v>70</v>
-      </c>
-      <c r="N24" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>2025-04-16 00:00:00</t>
-        </is>
-      </c>
-      <c r="R24" s="1" t="n">
-        <v>-1.442361111111111</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>251054</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>35</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>38</v>
-      </c>
-      <c r="M25" t="n">
-        <v>70</v>
-      </c>
-      <c r="N25" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>2025-04-16 00:00:00</t>
-        </is>
-      </c>
-      <c r="R25" s="1" t="n">
-        <v>-1.466666666666667</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>251081</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>125</v>
-      </c>
-      <c r="D26" t="n">
-        <v>42.42253521126761</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:17:00</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:17:00</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:59:25</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>3012</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>20</v>
-      </c>
-      <c r="M26" t="n">
-        <v>70</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>39750</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>2025-04-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R26" s="1" t="n">
-        <v>-16.58293231612268</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>251706</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>50.79365079365079</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:50:47</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>3200</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>foglio</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>39764</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>2025-05-14 00:00:00</t>
-        </is>
-      </c>
-      <c r="R27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/sequenza_parziale.xlsx
+++ b/PS-VRP/Dati_output/sequenza_parziale.xlsx
@@ -671,7 +671,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251218</v>
+        <v>251752</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>96.90140845070422</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -691,21 +691,21 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:23:00</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:23:00</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-04 13:59:54</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>6880</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -714,17 +714,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>39885</v>
+        <v>39846</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,15 +732,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39885</v>
+        <v>39846</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-0.5118055555555555</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251752</v>
+        <v>251218</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -759,30 +759,30 @@
         <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:59:54</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-04 14:20:54</t>
+          <t>2025-06-04 12:38:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-04 14:20:54</t>
+          <t>2025-06-04 12:38:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-04 14:20:54</t>
+          <t>2025-06-04 14:14:54</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6880</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>76</v>
       </c>
       <c r="N5" t="n">
-        <v>39846</v>
+        <v>39885</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,15 +809,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39846</v>
+        <v>39885</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.5978482003125</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -833,29 +833,29 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
         <v>139.3802816901408</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-04 14:20:54</t>
+          <t>2025-06-04 14:14:54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-04 14:52:54</t>
+          <t>2025-06-04 14:48:54</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-04 14:52:54</t>
+          <t>2025-06-04 14:48:54</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 09:12:16</t>
+          <t>2025-06-05 09:08:16</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.3835289514814815</v>
+        <v>-0.3807511737037037</v>
       </c>
       <c r="S6" t="n">
         <v>2</v>
@@ -917,22 +917,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 09:12:16</t>
+          <t>2025-06-05 09:08:16</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 09:31:16</t>
+          <t>2025-06-05 09:27:16</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 09:31:16</t>
+          <t>2025-06-05 09:27:16</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:28:01</t>
+          <t>2025-06-05 12:24:01</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.5194640062615741</v>
+        <v>-0.5166862284837963</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251180</v>
+        <v>251070</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32.5</v>
+        <v>36.5</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -999,17 +999,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1022,19 +1022,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N8" t="n">
+        <v>39885</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1042,23 +1040,23 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39887</v>
+        <v>39885</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-16.31423611111111</v>
+        <v>-0.3170138888888889</v>
       </c>
       <c r="S8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251070</v>
+        <v>251773</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1066,29 +1064,29 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>34.5</v>
+        <v>32.5</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-05 08:07:00</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-05 08:07:00</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-05 08:07:00</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1101,17 +1099,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1119,23 +1117,23 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.3381944444444445</v>
+        <v>-0.3395833333333333</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251773</v>
+        <v>251180</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1143,29 +1141,29 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>32.5</v>
+        <v>36.5</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:07:00</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:39:30</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:39:30</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:39:30</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1178,17 +1176,19 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="N10" t="n">
-        <v>39874</v>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1196,18 +1196,18 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39874</v>
+        <v>39887</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.3607638888888889</v>
+        <v>-16.36493055555556</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1220,29 +1220,29 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>36.5</v>
+        <v>42.5</v>
       </c>
       <c r="D11" t="n">
         <v>321.7090909090909</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-05 08:39:30</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05 09:16:00</t>
+          <t>2025-06-05 09:28:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-05 09:16:00</t>
+          <t>2025-06-05 09:28:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-05 14:37:42</t>
+          <t>2025-06-05 14:49:42</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1283,7 +1283,7 @@
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-10.60952020202546</v>
+        <v>-10.6178535353588</v>
       </c>
       <c r="S11" t="n">
         <v>4</v>
@@ -1306,22 +1306,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-05 14:37:42</t>
+          <t>2025-06-05 14:49:42</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-06 07:22:12</t>
+          <t>2025-06-06 07:34:12</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-06 07:22:12</t>
+          <t>2025-06-06 07:34:12</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-06 14:44:00</t>
+          <t>2025-06-06 14:56:00</t>
         </is>
       </c>
       <c r="I12" t="n">

--- a/PS-VRP/Dati_output/sequenza_parziale.xlsx
+++ b/PS-VRP/Dati_output/sequenza_parziale.xlsx
@@ -671,7 +671,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251752</v>
+        <v>251362</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -701,11 +701,11 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-04 12:52:16</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2505</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -724,7 +724,7 @@
         <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>39846</v>
+        <v>39874</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,18 +732,18 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39846</v>
+        <v>39874</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.5118055555555555</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -763,22 +763,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-04 12:52:16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-04 12:38:00</t>
+          <t>2025-06-04 13:13:16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-04 12:38:00</t>
+          <t>2025-06-04 13:13:16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-04 14:14:54</t>
+          <t>2025-06-04 14:50:10</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -825,7 +825,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251500</v>
+        <v>251752</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,33 +833,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>139.3802816901408</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-04 14:14:54</t>
+          <t>2025-06-04 14:50:10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-04 14:48:54</t>
+          <t>2025-06-05 07:11:10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-04 14:48:54</t>
+          <t>2025-06-05 07:11:10</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 09:08:16</t>
+          <t>2025-06-05 07:11:10</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>9896</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,17 +868,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N6" t="n">
-        <v>39885</v>
+        <v>39846</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -886,23 +886,23 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39885</v>
+        <v>39846</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.3807511737037037</v>
+        <v>-1.299432707349537</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251565</v>
+        <v>251895</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -910,33 +910,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D7" t="n">
-        <v>176.7464788732394</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 09:08:16</t>
+          <t>2025-06-05 07:11:10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 09:27:16</t>
+          <t>2025-06-05 07:55:10</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 09:27:16</t>
+          <t>2025-06-05 07:55:10</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:24:01</t>
+          <t>2025-06-05 12:04:23</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>12549</v>
+        <v>17694</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,17 +945,19 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
-      <c r="N7" t="n">
-        <v>39885</v>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -963,57 +965,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39885</v>
+        <v>39891</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.5166862284837963</v>
+        <v>-10.50305164319444</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251070</v>
+        <v>251565</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36.5</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>176.7464788732394</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-05 12:04:23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-05 12:35:23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-05 12:35:23</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-06 07:32:08</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>12549</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1022,11 +1024,11 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -1044,53 +1046,53 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.3170138888888889</v>
+        <v>-1.313986697962963</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251773</v>
+        <v>251780</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32.5</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>342.2394366197183</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-06 07:32:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-06-06 07:49:08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-06-06 07:49:08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-06-06 13:31:22</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>24299</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1099,17 +1101,19 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="n">
-        <v>39874</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1117,23 +1121,23 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39874</v>
+        <v>39887</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.3395833333333333</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251180</v>
+        <v>251500</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1141,33 +1145,33 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>36.5</v>
+        <v>32.5</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>179.9272727272727</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:45:30</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:45:30</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:45:30</t>
+          <t>2025-06-05 10:32:25</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>9896</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1176,7 +1180,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1185,10 +1189,8 @@
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N10" t="n">
+        <v>39885</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1196,23 +1198,23 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39887</v>
+        <v>39885</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-16.36493055555556</v>
+        <v>-0.4391856060648148</v>
       </c>
       <c r="S10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251895</v>
+        <v>251070</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1220,33 +1222,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>42.5</v>
+        <v>34.5</v>
       </c>
       <c r="D11" t="n">
-        <v>321.7090909090909</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-05 08:45:30</t>
+          <t>2025-06-05 10:32:25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05 09:28:00</t>
+          <t>2025-06-05 11:06:55</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-05 09:28:00</t>
+          <t>2025-06-05 11:06:55</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-05 14:49:42</t>
+          <t>2025-06-05 11:06:55</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>17694</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1259,15 +1261,13 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+      <c r="N11" t="n">
+        <v>39885</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1275,23 +1275,23 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39891</v>
+        <v>39885</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-10.6178535353588</v>
+        <v>-0.4631439393981481</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251780</v>
+        <v>251773</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1299,33 +1299,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>44.5</v>
+        <v>32.5</v>
       </c>
       <c r="D12" t="n">
-        <v>441.8</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-05 14:49:42</t>
+          <t>2025-06-05 11:06:55</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-06 07:34:12</t>
+          <t>2025-06-05 11:39:25</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-06 07:34:12</t>
+          <t>2025-06-05 11:39:25</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-06 14:56:00</t>
+          <t>2025-06-05 11:39:25</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>24299</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1334,19 +1334,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N12" t="n">
+        <v>39874</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1354,23 +1352,23 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39887</v>
+        <v>39874</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
+        <v>-0.4857133838425925</v>
       </c>
       <c r="S12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252112</v>
+        <v>252084</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1381,7 +1379,7 @@
         <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>204.1475409836065</v>
+        <v>641</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1400,11 +1398,11 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-04 10:44:08</t>
+          <t>2025-06-05 10:01:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>12453</v>
+        <v>39101</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1435,19 +1433,19 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-0.4173611111111111</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252282</v>
+        <v>251180</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1455,33 +1453,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>44.88524590163934</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-04 10:44:08</t>
+          <t>2025-06-05 10:01:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-04 11:19:08</t>
+          <t>2025-06-05 10:31:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-04 11:19:08</t>
+          <t>2025-06-05 10:31:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-04 12:04:01</t>
+          <t>2025-06-05 10:31:00</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2738</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1494,13 +1492,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
-      <c r="N14" t="n">
-        <v>39885</v>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1508,23 +1508,23 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39885</v>
+        <v>39887</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-16.43819444444444</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251984</v>
+        <v>252282</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1532,33 +1532,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>338.327868852459</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-04 12:04:01</t>
+          <t>2025-06-05 10:31:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-04 12:34:01</t>
+          <t>2025-06-05 10:56:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-04 12:34:01</t>
+          <t>2025-06-05 10:56:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-05 10:12:21</t>
+          <t>2025-06-05 11:40:53</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>20638</v>
+        <v>2738</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1571,13 +1571,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1585,15 +1585,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.4252504553703704</v>
+        <v>-0.4867258652083333</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1601,41 +1601,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251362</v>
+        <v>251984</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>35.28169014084507</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-05 11:40:53</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-05 12:10:53</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-05 12:10:53</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:52:16</t>
+          <t>2025-06-06 09:49:12</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2505</v>
+        <v>20638</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1644,14 +1644,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
         <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
         <v>39874</v>
@@ -1666,14 +1666,14 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.3279733959259259</v>
+        <v>-1.409175774131944</v>
       </c>
       <c r="S16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1686,29 +1686,29 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
         <v>146.056338028169</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:52:16</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-05 08:07:16</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-05 08:07:16</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-05 10:33:20</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.4398180751157408</v>
+        <v>-0.4049002347453703</v>
       </c>
       <c r="S17" t="n">
         <v>2</v>
@@ -1770,22 +1770,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-05 10:33:20</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-05 11:09:20</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-05 11:09:20</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-06 12:34:41</t>
+          <t>2025-06-06 11:44:24</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1824,7 +1824,7 @@
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.524090375590278</v>
+        <v>-1.489172535208333</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252084</v>
+        <v>252112</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>797.9795918367347</v>
+        <v>254.1428571428571</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1862,11 +1862,11 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-06-05 12:57:58</t>
+          <t>2025-06-04 11:54:08</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>39101</v>
+        <v>12453</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1897,14 +1897,14 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.5402636054398148</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">

--- a/PS-VRP/Dati_output/sequenza_parziale.xlsx
+++ b/PS-VRP/Dati_output/sequenza_parziale.xlsx
@@ -825,7 +825,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251752</v>
+        <v>251895</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -845,21 +845,21 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:11:10</t>
+          <t>2025-06-05 07:28:10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:11:10</t>
+          <t>2025-06-05 07:28:10</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:11:10</t>
+          <t>2025-06-05 11:37:23</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>17694</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,17 +868,19 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
-      </c>
-      <c r="N6" t="n">
-        <v>39846</v>
+        <v>70</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -886,23 +888,23 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39846</v>
+        <v>39891</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-1.299432707349537</v>
+        <v>-10.48430164319445</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251895</v>
+        <v>251780</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -910,33 +912,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>249.2112676056338</v>
+        <v>342.2394366197183</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:11:10</t>
+          <t>2025-06-05 11:37:23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:55:10</t>
+          <t>2025-06-05 12:06:23</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:55:10</t>
+          <t>2025-06-05 12:06:23</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:04:23</t>
+          <t>2025-06-06 09:48:38</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>17694</v>
+        <v>24299</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,18 +947,18 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>39891 (esterno)</t>
+          <t>39887 (esterno)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -965,23 +967,23 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39891</v>
+        <v>39887</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-10.50305164319444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251565</v>
+        <v>251180</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -989,33 +991,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>176.7464788732394</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:04:23</t>
+          <t>2025-06-06 09:48:38</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:35:23</t>
+          <t>2025-06-06 10:05:38</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:35:23</t>
+          <t>2025-06-06 10:05:38</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-06 07:32:08</t>
+          <t>2025-06-06 10:05:38</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>12549</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1028,13 +1030,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="n">
-        <v>39885</v>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1042,57 +1046,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39885</v>
+        <v>39887</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.313986697962963</v>
+        <v>-17.4205790297338</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251780</v>
+        <v>252282</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>34.5</v>
       </c>
       <c r="D9" t="n">
-        <v>342.2394366197183</v>
+        <v>49.78181818181818</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-06 07:32:08</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-06 07:49:08</t>
+          <t>2025-06-05 07:34:30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-06 07:49:08</t>
+          <t>2025-06-05 07:34:30</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-06 13:31:22</t>
+          <t>2025-06-05 08:24:16</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>24299</v>
+        <v>2738</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1105,15 +1109,13 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N9" t="n">
+        <v>39885</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1121,18 +1123,18 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39887</v>
+        <v>39885</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0</v>
+        <v>-0.3501957070717593</v>
       </c>
       <c r="S9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1152,22 +1154,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-05 08:24:16</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-05 08:56:46</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-05 08:56:46</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-05 10:32:25</t>
+          <t>2025-06-05 11:56:42</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1206,7 +1208,7 @@
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.4391856060648148</v>
+        <v>-0.4977146464699074</v>
       </c>
       <c r="S10" t="n">
         <v>2</v>
@@ -1229,22 +1231,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-05 10:32:25</t>
+          <t>2025-06-05 11:56:42</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-06-05 12:31:12</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-06-05 12:31:12</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-06-05 12:31:12</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1283,7 +1285,7 @@
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.4631439393981481</v>
+        <v>-0.5216729798032408</v>
       </c>
       <c r="S11" t="n">
         <v>2</v>
@@ -1306,22 +1308,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-06-05 12:31:12</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:39:25</t>
+          <t>2025-06-05 13:03:42</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:39:25</t>
+          <t>2025-06-05 13:03:42</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:39:25</t>
+          <t>2025-06-05 13:03:42</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1360,7 +1362,7 @@
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.4857133838425925</v>
+        <v>-0.5442424242476852</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1368,7 +1370,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252084</v>
+        <v>251565</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1379,7 +1381,7 @@
         <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>641</v>
+        <v>205.7213114754098</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1398,11 +1400,11 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-05 10:01:00</t>
+          <t>2025-06-04 10:45:43</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>39101</v>
+        <v>12549</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1433,19 +1435,19 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.4173611111111111</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251180</v>
+        <v>252084</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1453,33 +1455,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>641</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:01:00</t>
+          <t>2025-06-04 10:45:43</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-06-04 11:05:43</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-06-04 11:05:43</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-06-05 13:46:43</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>39101</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1492,15 +1494,13 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N14" t="n">
+        <v>39885</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1508,15 +1508,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39887</v>
+        <v>39885</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-16.43819444444444</v>
+        <v>-0.5741120218634259</v>
       </c>
       <c r="S14" t="n">
         <v>7</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>252282</v>
+        <v>251984</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1535,30 +1535,30 @@
         <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>44.88524590163934</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-06-05 13:46:43</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-05 10:56:00</t>
+          <t>2025-06-05 14:11:43</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-05 10:56:00</t>
+          <t>2025-06-05 14:11:43</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-05 11:40:53</t>
+          <t>2025-06-06 11:50:02</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2738</v>
+        <v>20638</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1571,13 +1571,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1585,15 +1585,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.4867258652083333</v>
+        <v>-1.493089708564815</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1601,41 +1601,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251984</v>
+        <v>251752</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>338.327868852459</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-05 11:40:53</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-05 12:10:53</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-05 12:10:53</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-06 09:49:12</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>20638</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1644,17 +1644,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
         <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N16" t="n">
-        <v>39874</v>
+        <v>39846</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1662,15 +1662,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39874</v>
+        <v>39846</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.409175774131944</v>
+        <v>-1.303472222222222</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -1686,29 +1686,29 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
         <v>146.056338028169</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-05 07:32:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-05 07:32:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-06-05 09:58:03</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.4049002347453703</v>
+        <v>-0.415316901412037</v>
       </c>
       <c r="S17" t="n">
         <v>2</v>
@@ -1770,22 +1770,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-06-05 09:58:03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-06-05 10:34:03</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-06-05 10:34:03</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-06 11:44:24</t>
+          <t>2025-06-06 11:59:24</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1824,7 +1824,7 @@
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.489172535208333</v>
+        <v>-1.499589201875</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>

--- a/PS-VRP/Dati_output/sequenza_parziale.xlsx
+++ b/PS-VRP/Dati_output/sequenza_parziale.xlsx
@@ -904,7 +904,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251780</v>
+        <v>251752</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -912,10 +912,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D7" t="n">
-        <v>342.2394366197183</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -924,21 +924,21 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:06:23</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:06:23</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-06 09:48:38</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>24299</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -947,19 +947,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
         <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N7" t="n">
+        <v>39846</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -967,23 +965,23 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39887</v>
+        <v>39846</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
+        <v>-1.51485719875</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251180</v>
+        <v>251565</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -991,33 +989,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>176.7464788732394</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-06 09:48:38</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-06 10:05:38</t>
+          <t>2025-06-05 12:53:23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-06 10:05:38</t>
+          <t>2025-06-05 12:53:23</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-06 10:05:38</t>
+          <t>2025-06-06 07:50:08</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>12549</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1030,15 +1028,13 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N8" t="n">
+        <v>39885</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1046,57 +1042,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39887</v>
+        <v>39885</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-17.4205790297338</v>
+        <v>-1.326486697962963</v>
       </c>
       <c r="S8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>252282</v>
+        <v>251780</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>34.5</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>49.78181818181818</v>
+        <v>342.2394366197183</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-06 07:50:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:34:30</t>
+          <t>2025-06-06 08:07:08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:34:30</t>
+          <t>2025-06-06 08:07:08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-05 08:24:16</t>
+          <t>2025-06-06 13:49:22</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2738</v>
+        <v>24299</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1109,13 +1105,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="n">
-        <v>39885</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1123,18 +1121,18 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39885</v>
+        <v>39887</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.3501957070717593</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1154,22 +1152,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:24:16</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:56:46</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:56:46</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-05 11:56:42</t>
+          <t>2025-06-05 10:32:25</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1208,7 +1206,7 @@
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.4977146464699074</v>
+        <v>-0.4391856060648148</v>
       </c>
       <c r="S10" t="n">
         <v>2</v>
@@ -1231,22 +1229,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:56:42</t>
+          <t>2025-06-05 10:32:25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05 12:31:12</t>
+          <t>2025-06-05 11:06:55</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-05 12:31:12</t>
+          <t>2025-06-05 11:06:55</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-05 12:31:12</t>
+          <t>2025-06-05 11:06:55</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1285,7 +1283,7 @@
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.5216729798032408</v>
+        <v>-0.4631439393981481</v>
       </c>
       <c r="S11" t="n">
         <v>2</v>
@@ -1308,22 +1306,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-05 12:31:12</t>
+          <t>2025-06-05 11:06:55</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-05 13:03:42</t>
+          <t>2025-06-05 11:39:25</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-05 13:03:42</t>
+          <t>2025-06-05 11:39:25</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-05 13:03:42</t>
+          <t>2025-06-05 11:39:25</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1362,7 +1360,7 @@
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.5442424242476852</v>
+        <v>-0.4857133838425925</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1370,7 +1368,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251565</v>
+        <v>252084</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1381,7 +1379,7 @@
         <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>205.7213114754098</v>
+        <v>641</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1400,11 +1398,11 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-04 10:45:43</t>
+          <t>2025-06-05 10:01:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>12549</v>
+        <v>39101</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1435,19 +1433,19 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-0.4173611111111111</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252084</v>
+        <v>251180</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1455,33 +1453,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>641</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-04 10:45:43</t>
+          <t>2025-06-05 10:01:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-04 11:05:43</t>
+          <t>2025-06-05 10:31:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-04 11:05:43</t>
+          <t>2025-06-05 10:31:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-05 13:46:43</t>
+          <t>2025-06-05 10:31:00</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>39101</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1494,13 +1492,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
-      <c r="N14" t="n">
-        <v>39885</v>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1508,15 +1508,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39885</v>
+        <v>39887</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.5741120218634259</v>
+        <v>-16.43819444444444</v>
       </c>
       <c r="S14" t="n">
         <v>7</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251984</v>
+        <v>252282</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1535,30 +1535,30 @@
         <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>338.327868852459</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-05 13:46:43</t>
+          <t>2025-06-05 10:31:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-05 14:11:43</t>
+          <t>2025-06-05 10:56:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-05 14:11:43</t>
+          <t>2025-06-05 10:56:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-06 11:50:02</t>
+          <t>2025-06-05 11:40:53</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>20638</v>
+        <v>2738</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1571,13 +1571,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1585,15 +1585,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.493089708564815</v>
+        <v>-0.4867258652083333</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1601,41 +1601,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251752</v>
+        <v>251984</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-05 11:40:53</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-05 12:10:53</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-05 12:10:53</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-06 09:49:12</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>20638</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1644,17 +1644,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
         <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39846</v>
+        <v>39874</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1662,15 +1662,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39846</v>
+        <v>39874</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.303472222222222</v>
+        <v>-1.409175774131944</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -1686,29 +1686,29 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
         <v>146.056338028169</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>2025-06-05 07:00:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>2025-06-05 07:17:00</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:32:00</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:00</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-05 09:58:03</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.415316901412037</v>
+        <v>-0.4049002347453703</v>
       </c>
       <c r="S17" t="n">
         <v>2</v>
@@ -1770,22 +1770,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-05 09:58:03</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-05 10:34:03</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-05 10:34:03</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-06 11:59:24</t>
+          <t>2025-06-06 11:44:24</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1824,7 +1824,7 @@
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.499589201875</v>
+        <v>-1.489172535208333</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>

--- a/PS-VRP/Dati_output/sequenza_parziale.xlsx
+++ b/PS-VRP/Dati_output/sequenza_parziale.xlsx
@@ -825,7 +825,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251895</v>
+        <v>251752</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>249.2112676056338</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -845,21 +845,21 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:28:10</t>
+          <t>2025-06-05 07:11:10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:28:10</t>
+          <t>2025-06-05 07:11:10</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 11:37:23</t>
+          <t>2025-06-05 07:11:10</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>17694</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,19 +868,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N6" t="n">
+        <v>39846</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -888,23 +886,23 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39891</v>
+        <v>39846</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-10.48430164319445</v>
+        <v>-1.299432707349537</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251752</v>
+        <v>251895</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -915,30 +913,30 @@
         <v>44</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 11:37:23</t>
+          <t>2025-06-05 07:11:10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-06-05 07:55:10</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-06-05 07:55:10</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-06-05 12:04:23</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17694</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -947,17 +945,19 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
-      </c>
-      <c r="N7" t="n">
-        <v>39846</v>
+        <v>70</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -965,18 +965,18 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39846</v>
+        <v>39891</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.51485719875</v>
+        <v>-10.50305164319444</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -989,29 +989,29 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
         <v>176.7464788732394</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-06-05 12:04:23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:53:23</t>
+          <t>2025-06-05 12:35:23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:53:23</t>
+          <t>2025-06-05 12:35:23</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-06 07:50:08</t>
+          <t>2025-06-06 07:32:08</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.326486697962963</v>
+        <v>-1.313986697962963</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1073,22 +1073,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-06 07:50:08</t>
+          <t>2025-06-06 07:32:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-06 08:07:08</t>
+          <t>2025-06-06 07:49:08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-06 08:07:08</t>
+          <t>2025-06-06 07:49:08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-06 13:49:22</t>
+          <t>2025-06-06 13:31:22</t>
         </is>
       </c>
       <c r="I9" t="n">

--- a/PS-VRP/Dati_output/sequenza_parziale.xlsx
+++ b/PS-VRP/Dati_output/sequenza_parziale.xlsx
@@ -825,7 +825,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251752</v>
+        <v>251895</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -845,21 +845,21 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:11:10</t>
+          <t>2025-06-05 07:28:10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:11:10</t>
+          <t>2025-06-05 07:28:10</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:11:10</t>
+          <t>2025-06-05 11:37:23</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>17694</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,17 +868,19 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
-      </c>
-      <c r="N6" t="n">
-        <v>39846</v>
+        <v>70</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -886,23 +888,23 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39846</v>
+        <v>39891</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-1.299432707349537</v>
+        <v>-10.48430164319445</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251895</v>
+        <v>251752</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -913,30 +915,30 @@
         <v>44</v>
       </c>
       <c r="D7" t="n">
-        <v>249.2112676056338</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:11:10</t>
+          <t>2025-06-05 11:37:23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:55:10</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:55:10</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:04:23</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>17694</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,19 +947,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N7" t="n">
+        <v>39846</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -965,18 +965,18 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39891</v>
+        <v>39846</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-10.50305164319444</v>
+        <v>-1.51485719875</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -989,29 +989,29 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
         <v>176.7464788732394</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:04:23</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:35:23</t>
+          <t>2025-06-05 12:53:23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:35:23</t>
+          <t>2025-06-05 12:53:23</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-06 07:32:08</t>
+          <t>2025-06-06 07:50:08</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.313986697962963</v>
+        <v>-1.326486697962963</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1073,22 +1073,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-06 07:32:08</t>
+          <t>2025-06-06 07:50:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-06 07:49:08</t>
+          <t>2025-06-06 08:07:08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-06 07:49:08</t>
+          <t>2025-06-06 08:07:08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-06 13:31:22</t>
+          <t>2025-06-06 13:49:22</t>
         </is>
       </c>
       <c r="I9" t="n">

--- a/PS-VRP/Dati_output/sequenza_parziale.xlsx
+++ b/PS-VRP/Dati_output/sequenza_parziale.xlsx
@@ -671,7 +671,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251362</v>
+        <v>251895</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D4" t="n">
-        <v>35.28169014084507</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -691,21 +691,21 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-04 12:46:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-04 12:46:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:52:16</t>
+          <t>2025-06-05 08:55:12</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2505</v>
+        <v>17694</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -714,17 +714,19 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
-      </c>
-      <c r="N4" t="n">
-        <v>39874</v>
+        <v>70</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,18 +734,18 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39874</v>
+        <v>39891</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-10.37167449138889</v>
       </c>
       <c r="S4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -756,29 +758,29 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
         <v>96.90140845070422</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-04 12:52:16</t>
+          <t>2025-06-05 08:55:12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:13:16</t>
+          <t>2025-06-05 09:33:12</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:13:16</t>
+          <t>2025-06-05 09:33:12</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-04 14:50:10</t>
+          <t>2025-06-05 11:10:06</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -817,7 +819,7 @@
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-0.4653560250347223</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -840,22 +842,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-04 14:50:10</t>
+          <t>2025-06-05 11:10:06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:11:10</t>
+          <t>2025-06-05 11:31:06</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:11:10</t>
+          <t>2025-06-05 11:31:06</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:11:10</t>
+          <t>2025-06-05 11:31:06</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -894,7 +896,7 @@
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-1.299432707349537</v>
+        <v>-1.479939358368056</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -902,7 +904,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251895</v>
+        <v>251565</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -910,33 +912,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
-        <v>249.2112676056338</v>
+        <v>176.7464788732394</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:11:10</t>
+          <t>2025-06-05 11:31:06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:55:10</t>
+          <t>2025-06-05 12:03:06</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 07:55:10</t>
+          <t>2025-06-05 12:03:06</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:04:23</t>
+          <t>2025-06-05 14:59:51</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>17694</v>
+        <v>12549</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,19 +947,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+      <c r="N7" t="n">
+        <v>39885</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -965,23 +965,23 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39891</v>
+        <v>39885</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-10.50305164319444</v>
+        <v>-0.6249021909259259</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251565</v>
+        <v>251362</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -989,33 +989,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>176.7464788732394</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:04:23</t>
+          <t>2025-06-05 14:59:51</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:35:23</t>
+          <t>2025-06-06 07:31:51</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:35:23</t>
+          <t>2025-06-06 07:31:51</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-06 07:32:08</t>
+          <t>2025-06-06 08:07:08</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>12549</v>
+        <v>2505</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1024,17 +1024,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N8" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1042,18 +1042,18 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.313986697962963</v>
+        <v>-1.338292253518518</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1066,29 +1066,29 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
         <v>342.2394366197183</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-06 07:32:08</t>
+          <t>2025-06-06 08:07:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-06 07:49:08</t>
+          <t>2025-06-06 08:37:08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-06 07:49:08</t>
+          <t>2025-06-06 08:37:08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-06 13:31:22</t>
+          <t>2025-06-06 14:19:22</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1137,7 +1137,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251500</v>
+        <v>251070</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>32.5</v>
+        <v>36.5</v>
       </c>
       <c r="D10" t="n">
-        <v>179.9272727272727</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1157,21 +1157,21 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-05 10:32:25</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>9896</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1202,11 +1202,11 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.4391856060648148</v>
+        <v>-0.3170138888888889</v>
       </c>
       <c r="S10" t="n">
         <v>2</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251070</v>
+        <v>251773</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1222,29 +1222,29 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>34.5</v>
+        <v>32.5</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-05 10:32:25</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1257,17 +1257,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1275,23 +1275,23 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.4631439393981481</v>
+        <v>-0.3395833333333333</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251773</v>
+        <v>251500</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1299,33 +1299,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>32.5</v>
+        <v>36.5</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>179.9272727272727</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:39:25</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:39:25</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:39:25</t>
+          <t>2025-06-05 11:45:25</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>9896</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1334,17 +1334,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1352,23 +1352,23 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.4857133838425925</v>
+        <v>-0.4898800505092593</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252084</v>
+        <v>251180</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>641</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1388,21 +1388,21 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-05 10:01:00</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>39101</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1415,13 +1415,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
-      <c r="N13" t="n">
-        <v>39885</v>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1429,15 +1431,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39885</v>
+        <v>39887</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.4173611111111111</v>
+        <v>-15.3125</v>
       </c>
       <c r="S13" t="n">
         <v>7</v>
@@ -1445,7 +1447,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251180</v>
+        <v>252282</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1453,33 +1455,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:01:00</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-06-04 07:55:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-06-04 07:55:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-06-04 08:39:53</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2738</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1492,15 +1494,13 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N14" t="n">
+        <v>39885</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1508,23 +1508,23 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39887</v>
+        <v>39885</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-16.43819444444444</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>252282</v>
+        <v>252084</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1532,33 +1532,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D15" t="n">
-        <v>44.88524590163934</v>
+        <v>641</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-06-04 08:39:53</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-05 10:56:00</t>
+          <t>2025-06-04 09:14:53</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-05 10:56:00</t>
+          <t>2025-06-04 09:14:53</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-05 11:40:53</t>
+          <t>2025-06-05 11:55:53</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2738</v>
+        <v>39101</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
@@ -1589,14 +1589,14 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.4867258652083333</v>
+        <v>-0.497142531875</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1609,29 +1609,29 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
         <v>338.327868852459</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-05 11:40:53</t>
+          <t>2025-06-05 11:55:53</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-05 12:10:53</t>
+          <t>2025-06-05 12:20:53</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-05 12:10:53</t>
+          <t>2025-06-05 12:20:53</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-06 09:49:12</t>
+          <t>2025-06-06 09:59:12</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.409175774131944</v>
+        <v>-1.416120218576389</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>

--- a/PS-VRP/Dati_output/sequenza_parziale.xlsx
+++ b/PS-VRP/Dati_output/sequenza_parziale.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251219</v>
+        <v>251391</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,33 +523,33 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>107.5</v>
+        <v>91.640625</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:36:00</t>
+          <t>2025-05-07 07:21:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:36:00</t>
+          <t>2025-05-07 07:21:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-06-05 14:23:30</t>
+          <t>2025-05-07 08:52:38</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>6880</v>
+        <v>5865</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,17 +558,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N2" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,57 +576,57 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.5996527777777778</v>
+        <v>-0.3698893229166667</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251897</v>
+        <v>251395</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>305.0327868852459</v>
+        <v>35.34375</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-07 08:52:38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-06-05 07:54:00</t>
+          <t>2025-05-07 09:09:38</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-05 07:54:00</t>
+          <t>2025-05-07 09:09:38</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-06-05 12:59:01</t>
+          <t>2025-05-07 09:44:59</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>18607</v>
+        <v>2262</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,19 +635,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+      <c r="N3" t="n">
+        <v>39749</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -655,57 +653,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39891</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-10.54099499089121</v>
+        <v>-0.4062391493055555</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251362</v>
+        <v>251371</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>35.28169014084507</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:00:00</t>
+          <t>2025-05-07 09:44:59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-05-07 10:03:59</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-05-07 10:03:59</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:52:16</t>
+          <t>2025-05-07 10:03:59</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2505</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -714,17 +712,19 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
-      </c>
-      <c r="N4" t="n">
-        <v>39874</v>
+        <v>70</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39874</v>
+        <v>39666</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-13.41943359375</v>
       </c>
       <c r="S4" t="n">
         <v>7</v>
@@ -748,41 +748,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251218</v>
+        <v>251455</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>96.90140845070422</v>
+        <v>82.765625</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-04 12:52:16</t>
+          <t>2025-05-07 10:03:59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:13:16</t>
+          <t>2025-05-07 10:18:59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:13:16</t>
+          <t>2025-05-07 10:18:59</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-04 14:50:10</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>6880</v>
+        <v>5297</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,57 +809,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-0.4873263888888889</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251895</v>
+        <v>251396</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>249.2112676056338</v>
+        <v>35.34375</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-04 14:50:10</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:28:10</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:28:10</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 11:37:23</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>17694</v>
+        <v>2262</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,19 +868,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+      <c r="N6" t="n">
+        <v>39749</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -888,57 +886,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39891</v>
+        <v>39749</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-10.48430164319445</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251752</v>
+        <v>251548</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>206.90625</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 11:37:23</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>13242</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -947,17 +945,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39846</v>
+        <v>39749</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -965,57 +963,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39846</v>
+        <v>39749</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.51485719875</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251565</v>
+        <v>250923</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>176.7464788732394</v>
+        <v>109.46875</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:53:23</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:53:23</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-06 07:50:08</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>12549</v>
+        <v>7006</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1024,75 +1022,75 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>76</v>
+      </c>
+      <c r="N8" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>39749</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>2025-04-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>-1.446853298611111</v>
+      </c>
+      <c r="S8" t="n">
         <v>2</v>
-      </c>
-      <c r="M8" t="n">
-        <v>70</v>
-      </c>
-      <c r="N8" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>39885</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>2025-06-10 00:00:00</t>
-        </is>
-      </c>
-      <c r="R8" s="1" t="n">
-        <v>-1.326486697962963</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251780</v>
+        <v>251477</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>342.2394366197183</v>
+        <v>468.734375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-06 07:50:08</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-06 08:07:08</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-06 08:07:08</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-06 13:49:22</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>24299</v>
+        <v>29999</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1101,19 +1099,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N9" t="n">
+        <v>39760</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1121,57 +1117,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39887</v>
+        <v>39760</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251500</v>
+        <v>251651</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>32.5</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
-        <v>179.9272727272727</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-05 10:32:25</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>9896</v>
+        <v>46830</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1180,75 +1176,73 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>76</v>
+      </c>
+      <c r="N10" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>2025-05-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>4</v>
-      </c>
-      <c r="M10" t="n">
-        <v>70</v>
-      </c>
-      <c r="N10" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>39885</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>2025-05-26 00:00:00</t>
-        </is>
-      </c>
-      <c r="R10" s="1" t="n">
-        <v>-0.4391856060648148</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251070</v>
+        <v>251547</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>34.5</v>
+        <v>34</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-05 10:32:25</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>13129</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1257,17 +1251,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1275,57 +1269,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.4631439393981481</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251773</v>
+        <v>250759</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>32.5</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:39:25</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:39:25</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:39:25</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>8398</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1334,17 +1328,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39874</v>
+        <v>39747</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1352,15 +1346,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39874</v>
+        <v>39747</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.4857133838425925</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1368,41 +1362,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252084</v>
+        <v>250894</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>641</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-05 10:01:00</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>39101</v>
+        <v>44262</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1411,75 +1405,73 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N13" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.4173611111111111</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251180</v>
+        <v>251284</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>40.5</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:01:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>16340</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1488,19 +1480,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N14" t="n">
+        <v>39747</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1508,23 +1498,23 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39887</v>
+        <v>39747</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-16.43819444444444</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>252282</v>
+        <v>251742</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1532,33 +1522,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>44.88524590163934</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-05 10:56:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-05 10:56:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-05 11:40:53</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2738</v>
+        <v>8226</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1571,13 +1561,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1585,23 +1575,23 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.4867258652083333</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251984</v>
+        <v>251840</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1609,33 +1599,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>338.327868852459</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-05 11:40:53</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-05 12:10:53</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-05 12:10:53</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-06 09:49:12</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>20638</v>
+        <v>5714</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1648,13 +1638,13 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39874</v>
+        <v>39758</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1662,15 +1652,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39874</v>
+        <v>39758</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.409175774131944</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -1678,41 +1668,41 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251631</v>
+        <v>251229</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>146.056338028169</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>10370</v>
+        <v>18739</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1721,17 +1711,19 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>76</v>
-      </c>
-      <c r="N17" t="n">
-        <v>39885</v>
+        <v>70</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1739,23 +1731,23 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39885</v>
+        <v>39723</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.4049002347453703</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251237</v>
+        <v>251225</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1763,33 +1755,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>565.3521126760563</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-06 11:44:24</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>40140</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1798,17 +1790,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="N18" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1816,15 +1808,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.489172535208333</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1832,41 +1824,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252112</v>
+        <v>251227</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>254.1428571428571</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-06-04 07:40:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-06-04 07:40:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-06-04 11:54:08</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>12453</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1875,17 +1867,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N19" t="n">
-        <v>39885</v>
+        <v>39746</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1893,15 +1885,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39885</v>
+        <v>39746</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -1909,41 +1901,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251655</v>
+        <v>251782</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.211267605634</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-06-10 10:37:12</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>114822</v>
+        <v>12073</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1952,17 +1944,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N20" t="n">
-        <v>39885</v>
+        <v>39754</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1970,57 +1962,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39885</v>
+        <v>39754</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-5.442507824722222</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251573</v>
+        <v>251164</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D21" t="n">
-        <v>89.89855072463769</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-06-06 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-06-06 09:04:53</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>6203</v>
+        <v>10000</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2029,113 +2021,500 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
+        <v>6</v>
+      </c>
+      <c r="M21" t="n">
+        <v>70</v>
+      </c>
+      <c r="N21" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>39749</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>2025-04-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="R21" s="1" t="n">
+        <v>-1.471584467118056</v>
+      </c>
+      <c r="S21" t="n">
         <v>4</v>
-      </c>
-      <c r="M21" t="n">
-        <v>100</v>
-      </c>
-      <c r="N21" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>39885</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>2025-05-26 00:00:00</t>
-        </is>
-      </c>
-      <c r="R21" s="1" t="n">
-        <v>-1.378401771331018</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251082</v>
+        <v>251456</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C22" t="n">
+        <v>50</v>
+      </c>
+      <c r="D22" t="n">
+        <v>183.6530612244898</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2025-05-08 11:19:04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:09:04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:09:04</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:12:44</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>8999</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>3</v>
+      </c>
+      <c r="M22" t="n">
+        <v>70</v>
+      </c>
+      <c r="N22" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>39746</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>2025-05-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>-3.300510204085648</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>251416</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>40</v>
+      </c>
+      <c r="D23" t="n">
+        <v>229.0204081632653</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:12:44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:52:44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:52:44</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:41:45</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>11222</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>70</v>
+      </c>
+      <c r="N23" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O23" t="n">
         <v>0</v>
       </c>
-      <c r="D22" t="n">
+      <c r="P23" t="n">
         <v>0</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2025-04-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="R23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>251050</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>217</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:00:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>38</v>
+      </c>
+      <c r="M24" t="n">
+        <v>70</v>
+      </c>
+      <c r="N24" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>39747</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>2025-04-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="R24" s="1" t="n">
+        <v>-1.442361111111111</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>251054</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>38</v>
+      </c>
+      <c r="M25" t="n">
+        <v>70</v>
+      </c>
+      <c r="N25" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>39747</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>2025-04-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>-1.466666666666667</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>251081</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>125</v>
+      </c>
+      <c r="D26" t="n">
+        <v>42.42253521126761</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:17:00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:17:00</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:59:25</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>3012</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>20</v>
+      </c>
+      <c r="M26" t="n">
+        <v>70</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>39750</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>2025-04-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>-16.58293231612268</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>251706</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>50.79365079365079</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:50:47</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>3200</v>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>foglio</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>T1 ;T2 ;T8</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
         <v>0</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M27" t="n">
         <v>0</v>
       </c>
-      <c r="N22" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O22" t="inlineStr">
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="P22" t="n">
-        <v>39885</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>2025-05-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="R22" s="1" t="n">
-        <v>-0.2916666666666667</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2</v>
+      <c r="P27" t="n">
+        <v>39764</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2025-05-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/sequenza_parziale.xlsx
+++ b/PS-VRP/Dati_output/sequenza_parziale.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251391</v>
+        <v>251219</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,33 +523,33 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>91.640625</v>
+        <v>107.5</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-06-05 12:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:21:00</t>
+          <t>2025-06-05 12:36:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:21:00</t>
+          <t>2025-06-05 12:36:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-07 08:52:38</t>
+          <t>2025-06-05 14:23:30</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>5865</v>
+        <v>6880</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,17 +558,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N2" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,57 +576,57 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.3698893229166667</v>
+        <v>-0.5996527777777778</v>
       </c>
       <c r="S2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251395</v>
+        <v>251897</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D3" t="n">
-        <v>35.34375</v>
+        <v>305.0327868852459</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-07 08:52:38</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-07 09:09:38</t>
+          <t>2025-06-05 07:54:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-07 09:09:38</t>
+          <t>2025-06-05 07:54:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-07 09:44:59</t>
+          <t>2025-06-05 12:59:01</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2262</v>
+        <v>18607</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,17 +635,19 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
-      <c r="N3" t="n">
-        <v>39749</v>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -653,57 +655,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>39891</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4062391493055555</v>
+        <v>-10.54099499089121</v>
       </c>
       <c r="S3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251371</v>
+        <v>251895</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-07 09:44:59</t>
+          <t>2025-06-04 12:00:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:03:59</t>
+          <t>2025-06-04 12:46:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:03:59</t>
+          <t>2025-06-04 12:46:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:03:59</t>
+          <t>2025-06-05 08:55:12</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17694</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -712,18 +714,18 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>39666 (esterno)</t>
+          <t>39891 (esterno)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -732,57 +734,57 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39666</v>
+        <v>39891</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-13.41943359375</v>
+        <v>-10.37167449138889</v>
       </c>
       <c r="S4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251455</v>
+        <v>251218</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
-        <v>82.765625</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-07 10:03:59</t>
+          <t>2025-06-05 08:55:12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-07 10:18:59</t>
+          <t>2025-06-05 09:33:12</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-07 10:18:59</t>
+          <t>2025-06-05 09:33:12</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-06-05 11:10:06</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5297</v>
+        <v>6880</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +793,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N5" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,57 +811,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.4873263888888889</v>
+        <v>-0.4653560250347223</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251396</v>
+        <v>251752</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-06-05 11:10:06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-06-05 11:31:06</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-06-05 11:31:06</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-06-05 11:31:06</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,17 +870,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N6" t="n">
-        <v>39749</v>
+        <v>39846</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -886,57 +888,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39749</v>
+        <v>39846</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-1.479939358368056</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251548</v>
+        <v>251565</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
-        <v>206.90625</v>
+        <v>176.7464788732394</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-06-05 11:31:06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-06-05 12:03:06</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-06-05 12:03:06</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-06-05 14:59:51</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>13242</v>
+        <v>12549</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -949,13 +951,13 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -963,57 +965,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-0.6249021909259259</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>250923</v>
+        <v>251362</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>109.46875</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-06-05 14:59:51</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-06-06 07:31:51</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-06-06 07:31:51</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-06-06 08:07:08</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>7006</v>
+        <v>2505</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1026,13 +1028,13 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>76</v>
       </c>
       <c r="N8" t="n">
-        <v>39749</v>
+        <v>39874</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1040,57 +1042,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39749</v>
+        <v>39874</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-1.338292253518518</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251477</v>
+        <v>251780</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>468.734375</v>
+        <v>342.2394366197183</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-06-06 08:07:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-06-06 08:37:08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-06-06 08:37:08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-06-06 14:19:22</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>29999</v>
+        <v>24299</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1099,17 +1101,19 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>76</v>
-      </c>
-      <c r="N9" t="n">
-        <v>39760</v>
+        <v>70</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1117,57 +1121,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39760</v>
+        <v>39887</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251651</v>
+        <v>251070</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29</v>
+        <v>36.5</v>
       </c>
       <c r="D10" t="n">
-        <v>767.7049180327868</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>46830</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1176,73 +1180,75 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
+        <v>39885</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-0.3170138888888889</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251547</v>
+        <v>251773</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>34</v>
+        <v>32.5</v>
       </c>
       <c r="D11" t="n">
-        <v>184.9154929577465</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>13129</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1251,17 +1257,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39749</v>
+        <v>39874</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1269,57 +1275,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39749</v>
+        <v>39874</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-0.3395833333333333</v>
       </c>
       <c r="S11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>250759</v>
+        <v>251500</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>36.5</v>
       </c>
       <c r="D12" t="n">
-        <v>118.2816901408451</v>
+        <v>179.9272727272727</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-06-05 11:45:25</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>8398</v>
+        <v>9896</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1328,17 +1334,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1346,57 +1352,57 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-0.4898800505092593</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>250894</v>
+        <v>251180</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>623.4084507042254</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>44262</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1405,73 +1411,77 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
-      </c>
-      <c r="N13" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>39887</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-15.3125</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251284</v>
+        <v>252282</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>40.5</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>297.0909090909091</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-06-04 07:55:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-06-04 07:55:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-06-04 08:39:53</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>16340</v>
+        <v>2738</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1480,17 +1490,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1498,15 +1508,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -1514,7 +1524,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251742</v>
+        <v>252084</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1522,33 +1532,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D15" t="n">
-        <v>134.8524590163935</v>
+        <v>641</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-04 08:39:53</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-06-04 09:14:53</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-06-04 09:14:53</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-06-05 11:55:53</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>8226</v>
+        <v>39101</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1561,13 +1571,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1575,15 +1585,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.497142531875</v>
       </c>
       <c r="S15" t="n">
         <v>7</v>
@@ -1591,7 +1601,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251840</v>
+        <v>251984</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1602,30 +1612,30 @@
         <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>93.67213114754098</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-06-05 11:55:53</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-06-05 12:20:53</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-06-05 12:20:53</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-06-06 09:59:12</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5714</v>
+        <v>20638</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1638,13 +1648,13 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39758</v>
+        <v>39874</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1652,15 +1662,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39758</v>
+        <v>39874</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-1.416120218576389</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -1668,41 +1678,41 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251229</v>
+        <v>251631</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>307.1967213114754</v>
+        <v>146.056338028169</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>18739</v>
+        <v>10370</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1711,19 +1721,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N17" t="n">
+        <v>39885</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1731,23 +1739,23 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39723</v>
+        <v>39885</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0</v>
+        <v>-0.4049002347453703</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251225</v>
+        <v>251237</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1755,33 +1763,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>565.3521126760563</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-06-06 11:44:24</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>40140</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1790,17 +1798,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1808,15 +1816,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-1.489172535208333</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1824,76 +1832,76 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251227</v>
+        <v>252112</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D19" t="n">
+        <v>254.1428571428571</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025-06-04 07:00:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-06-04 07:40:00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-06-04 07:40:00</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-06-04 11:54:08</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>12453</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>70</v>
+      </c>
+      <c r="N19" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>39885</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>2025-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="R19" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:19:00</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:34:00</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:34:00</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:34:00</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>4</v>
-      </c>
-      <c r="M19" t="n">
-        <v>76</v>
-      </c>
-      <c r="N19" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P19" t="n">
-        <v>39746</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>2025-05-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="R19" s="1" t="n">
-        <v>-2.523611111111111</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -1901,41 +1909,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251782</v>
+        <v>251655</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D20" t="n">
-        <v>170.0422535211268</v>
+        <v>1617.211267605634</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-06-10 10:37:12</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>12073</v>
+        <v>114822</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1944,17 +1952,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>39754</v>
+        <v>39885</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1962,57 +1970,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39754</v>
+        <v>39885</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-5.442507824722222</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251164</v>
+        <v>251573</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D21" t="n">
-        <v>204.0816326530612</v>
+        <v>89.89855072463769</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-06 07:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-06-06 09:04:53</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>10000</v>
+        <v>6203</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2021,17 +2029,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2039,76 +2047,76 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-1.378401771331018</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251456</v>
+        <v>251082</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>183.6530612244898</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>8999</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T1 ;T2 ;T8</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2116,405 +2124,18 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-0.2916666666666667</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>251416</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>40</v>
-      </c>
-      <c r="D23" t="n">
-        <v>229.0204081632653</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:12:44</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:52:44</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:52:44</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:41:45</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>11222</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
         <v>2</v>
-      </c>
-      <c r="M23" t="n">
-        <v>70</v>
-      </c>
-      <c r="N23" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>2025-04-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>251050</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>217</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:00:00</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>38</v>
-      </c>
-      <c r="M24" t="n">
-        <v>70</v>
-      </c>
-      <c r="N24" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>2025-04-16 00:00:00</t>
-        </is>
-      </c>
-      <c r="R24" s="1" t="n">
-        <v>-1.442361111111111</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>251054</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>35</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>38</v>
-      </c>
-      <c r="M25" t="n">
-        <v>70</v>
-      </c>
-      <c r="N25" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>2025-04-16 00:00:00</t>
-        </is>
-      </c>
-      <c r="R25" s="1" t="n">
-        <v>-1.466666666666667</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>251081</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>125</v>
-      </c>
-      <c r="D26" t="n">
-        <v>42.42253521126761</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:17:00</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:17:00</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:59:25</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>3012</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>20</v>
-      </c>
-      <c r="M26" t="n">
-        <v>70</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>39750</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>2025-04-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R26" s="1" t="n">
-        <v>-16.58293231612268</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>251706</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>50.79365079365079</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:50:47</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>3200</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>foglio</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>39764</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>2025-05-14 00:00:00</t>
-        </is>
-      </c>
-      <c r="R27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/sequenza_parziale.xlsx
+++ b/PS-VRP/Dati_output/sequenza_parziale.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251219</v>
+        <v>251391</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,33 +523,33 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>107.5</v>
+        <v>91.640625</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:36:00</t>
+          <t>2025-05-07 07:21:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:36:00</t>
+          <t>2025-05-07 07:21:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-06-05 14:23:30</t>
+          <t>2025-05-07 08:52:38</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>6880</v>
+        <v>5865</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,17 +558,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N2" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,57 +576,57 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.5996527777777778</v>
+        <v>-0.3698893229166667</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251897</v>
+        <v>251395</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>305.0327868852459</v>
+        <v>35.34375</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-07 08:52:38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-06-05 07:54:00</t>
+          <t>2025-05-07 09:09:38</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-05 07:54:00</t>
+          <t>2025-05-07 09:09:38</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-06-05 12:59:01</t>
+          <t>2025-05-07 09:44:59</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>18607</v>
+        <v>2262</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,19 +635,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+      <c r="N3" t="n">
+        <v>39749</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -655,57 +653,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39891</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-10.54099499089121</v>
+        <v>-0.4062391493055555</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251895</v>
+        <v>251371</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>249.2112676056338</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:00:00</t>
+          <t>2025-05-07 09:44:59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:46:00</t>
+          <t>2025-05-07 10:03:59</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:46:00</t>
+          <t>2025-05-07 10:03:59</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-05 08:55:12</t>
+          <t>2025-05-07 10:03:59</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>17694</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -714,18 +712,18 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>39891 (esterno)</t>
+          <t>39666 (esterno)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -734,57 +732,57 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39891</v>
+        <v>39666</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-10.37167449138889</v>
+        <v>-13.41943359375</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251218</v>
+        <v>251455</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>96.90140845070422</v>
+        <v>82.765625</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-05 08:55:12</t>
+          <t>2025-05-07 10:03:59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-05 09:33:12</t>
+          <t>2025-05-07 10:18:59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-05 09:33:12</t>
+          <t>2025-05-07 10:18:59</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-05 11:10:06</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>6880</v>
+        <v>5297</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -793,17 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -811,57 +809,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.4653560250347223</v>
+        <v>-0.4873263888888889</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251752</v>
+        <v>251396</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-05 11:10:06</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-05 11:31:06</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-05 11:31:06</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 11:31:06</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -870,17 +868,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39846</v>
+        <v>39749</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -888,57 +886,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39846</v>
+        <v>39749</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-1.479939358368056</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251565</v>
+        <v>251548</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>176.7464788732394</v>
+        <v>206.90625</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 11:31:06</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:03:06</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:03:06</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 14:59:51</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>12549</v>
+        <v>13242</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -951,13 +949,13 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -965,57 +963,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.6249021909259259</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251362</v>
+        <v>250923</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>35.28169014084507</v>
+        <v>109.46875</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-05 14:59:51</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-06 07:31:51</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-06 07:31:51</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-06 08:07:08</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2505</v>
+        <v>7006</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1028,13 +1026,13 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>76</v>
       </c>
       <c r="N8" t="n">
-        <v>39874</v>
+        <v>39749</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1042,57 +1040,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39874</v>
+        <v>39749</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.338292253518518</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251780</v>
+        <v>251477</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>342.2394366197183</v>
+        <v>468.734375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-06 08:07:08</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-06 08:37:08</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-06 08:37:08</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-06 14:19:22</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>24299</v>
+        <v>29999</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1101,19 +1099,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N9" t="n">
+        <v>39760</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1121,134 +1117,132 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39887</v>
+        <v>39760</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251070</v>
+        <v>251651</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>36.5</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
+        <v>767.7049180327868</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:00:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:29:00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:29:00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-05-12 12:16:42</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>46830</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>76</v>
+      </c>
+      <c r="N10" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O10" t="n">
         <v>0</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:36:30</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:36:30</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:36:30</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="P10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>6</v>
-      </c>
-      <c r="M10" t="n">
-        <v>70</v>
-      </c>
-      <c r="N10" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>39885</v>
-      </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.3170138888888889</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251773</v>
+        <v>251547</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32.5</v>
+        <v>34</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>13129</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1257,17 +1251,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39874</v>
+        <v>39749</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1275,57 +1269,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39874</v>
+        <v>39749</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.3395833333333333</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251500</v>
+        <v>250759</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>36.5</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>179.9272727272727</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-05 08:45:30</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-05 08:45:30</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:45:25</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>9896</v>
+        <v>8398</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1334,17 +1328,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L12" t="n">
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1352,136 +1346,132 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.4898800505092593</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251180</v>
+        <v>250894</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
+        <v>623.4084507042254</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:07:11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:24:11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:24:11</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:47:36</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>44262</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>76</v>
+      </c>
+      <c r="N13" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O13" t="n">
         <v>0</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2025-06-04 07:00:00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2025-06-04 07:30:00</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2025-06-04 07:30:00</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-06-04 07:30:00</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="P13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>2025-05-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
         <v>4</v>
-      </c>
-      <c r="M13" t="n">
-        <v>70</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>39887</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>2025-05-20 00:00:00</t>
-        </is>
-      </c>
-      <c r="R13" s="1" t="n">
-        <v>-15.3125</v>
-      </c>
-      <c r="S13" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252282</v>
+        <v>251284</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>40.5</v>
       </c>
       <c r="D14" t="n">
-        <v>44.88524590163934</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-04 07:30:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-04 07:55:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-04 07:55:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-04 08:39:53</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2738</v>
+        <v>16340</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1490,17 +1480,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1508,15 +1498,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -1524,7 +1514,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>252084</v>
+        <v>251742</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1532,33 +1522,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>641</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-04 08:39:53</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-04 09:14:53</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-04 09:14:53</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-05 11:55:53</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>39101</v>
+        <v>8226</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1571,13 +1561,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1585,15 +1575,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.497142531875</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S15" t="n">
         <v>7</v>
@@ -1601,7 +1591,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251984</v>
+        <v>251840</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1612,30 +1602,30 @@
         <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>338.327868852459</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-05 11:55:53</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-05 12:20:53</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-05 12:20:53</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-06 09:59:12</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>20638</v>
+        <v>5714</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1648,13 +1638,13 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39874</v>
+        <v>39758</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1662,15 +1652,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39874</v>
+        <v>39758</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.416120218576389</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -1678,41 +1668,41 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251631</v>
+        <v>251229</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>146.056338028169</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>10370</v>
+        <v>18739</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1721,17 +1711,19 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>76</v>
-      </c>
-      <c r="N17" t="n">
-        <v>39885</v>
+        <v>70</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1739,23 +1731,23 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39885</v>
+        <v>39723</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.4049002347453703</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251237</v>
+        <v>251225</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1763,33 +1755,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>565.3521126760563</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-06 11:44:24</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>40140</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1798,17 +1790,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="N18" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1816,15 +1808,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.489172535208333</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1832,41 +1824,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252112</v>
+        <v>251227</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>254.1428571428571</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-06-04 07:40:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-06-04 07:40:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-06-04 11:54:08</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>12453</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1875,17 +1867,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N19" t="n">
-        <v>39885</v>
+        <v>39746</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1893,15 +1885,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39885</v>
+        <v>39746</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -1909,41 +1901,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251655</v>
+        <v>251782</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.211267605634</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-06-10 10:37:12</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>114822</v>
+        <v>12073</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1952,17 +1944,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N20" t="n">
-        <v>39885</v>
+        <v>39754</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1970,57 +1962,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39885</v>
+        <v>39754</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-5.442507824722222</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251573</v>
+        <v>251164</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D21" t="n">
-        <v>89.89855072463769</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-06-06 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-06-06 09:04:53</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>6203</v>
+        <v>10000</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2029,113 +2021,500 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
+        <v>6</v>
+      </c>
+      <c r="M21" t="n">
+        <v>70</v>
+      </c>
+      <c r="N21" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>39749</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>2025-04-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="R21" s="1" t="n">
+        <v>-1.471584467118056</v>
+      </c>
+      <c r="S21" t="n">
         <v>4</v>
-      </c>
-      <c r="M21" t="n">
-        <v>100</v>
-      </c>
-      <c r="N21" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>39885</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>2025-05-26 00:00:00</t>
-        </is>
-      </c>
-      <c r="R21" s="1" t="n">
-        <v>-1.378401771331018</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251082</v>
+        <v>251456</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C22" t="n">
+        <v>50</v>
+      </c>
+      <c r="D22" t="n">
+        <v>183.6530612244898</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2025-05-08 11:19:04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:09:04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:09:04</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:12:44</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>8999</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>3</v>
+      </c>
+      <c r="M22" t="n">
+        <v>70</v>
+      </c>
+      <c r="N22" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>39746</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>2025-05-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>-3.300510204085648</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>251416</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>40</v>
+      </c>
+      <c r="D23" t="n">
+        <v>229.0204081632653</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:12:44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:52:44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:52:44</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:41:45</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>11222</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>70</v>
+      </c>
+      <c r="N23" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O23" t="n">
         <v>0</v>
       </c>
-      <c r="D22" t="n">
+      <c r="P23" t="n">
         <v>0</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2025-04-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="R23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>251050</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>217</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:00:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>38</v>
+      </c>
+      <c r="M24" t="n">
+        <v>70</v>
+      </c>
+      <c r="N24" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>39747</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>2025-04-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="R24" s="1" t="n">
+        <v>-1.442361111111111</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>251054</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>38</v>
+      </c>
+      <c r="M25" t="n">
+        <v>70</v>
+      </c>
+      <c r="N25" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>39747</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>2025-04-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>-1.466666666666667</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>251081</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>125</v>
+      </c>
+      <c r="D26" t="n">
+        <v>42.42253521126761</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:17:00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:17:00</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:59:25</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>3012</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>20</v>
+      </c>
+      <c r="M26" t="n">
+        <v>70</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>39750</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>2025-04-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>-16.58293231612268</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>251706</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>50.79365079365079</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:50:47</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>3200</v>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>foglio</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>T1 ;T2 ;T8</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
         <v>0</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M27" t="n">
         <v>0</v>
       </c>
-      <c r="N22" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O22" t="inlineStr">
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="P22" t="n">
-        <v>39885</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>2025-05-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="R22" s="1" t="n">
-        <v>-0.2916666666666667</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2</v>
+      <c r="P27" t="n">
+        <v>39764</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2025-05-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
